--- a/dev-docs/小组日报/小组日报（20200713-20200715）.xlsx
+++ b/dev-docs/小组日报/小组日报（20200713-20200715）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\SecondGrade\Last\实训\p2p-chat-specification\dev-docs\小组日报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA8A726-1336-448F-B088-7259303FC005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9882626F-25FC-42D1-85A3-A0801D2B88EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BB0CA93C-1239-46AB-B33B-87719E425E4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{BB0CA93C-1239-46AB-B33B-87719E425E4B}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,18 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_ML1">[4]分类数据!$C$3</definedName>
-    <definedName name="_ML10">[4]分类数据!$C$12</definedName>
-    <definedName name="_ML2">[4]分类数据!$C$4</definedName>
-    <definedName name="_ML3">[4]分类数据!$C$5</definedName>
-    <definedName name="_ML4">[4]分类数据!$C$6</definedName>
-    <definedName name="_ML5">[4]分类数据!$C$7</definedName>
-    <definedName name="_ML6">[4]分类数据!$C$8</definedName>
-    <definedName name="_ML7">[4]分类数据!$C$9</definedName>
-    <definedName name="_ML8">[4]分类数据!$C$10</definedName>
-    <definedName name="_ML9">[4]分类数据!$C$11</definedName>
+    <definedName name="_ML1">[1]分类数据!$C$3</definedName>
+    <definedName name="_ML10">[1]分类数据!$C$12</definedName>
+    <definedName name="_ML2">[1]分类数据!$C$4</definedName>
+    <definedName name="_ML3">[1]分类数据!$C$5</definedName>
+    <definedName name="_ML4">[1]分类数据!$C$6</definedName>
+    <definedName name="_ML5">[1]分类数据!$C$7</definedName>
+    <definedName name="_ML6">[1]分类数据!$C$8</definedName>
+    <definedName name="_ML7">[1]分类数据!$C$9</definedName>
+    <definedName name="_ML8">[1]分类数据!$C$10</definedName>
+    <definedName name="_ML9">[1]分类数据!$C$11</definedName>
     <definedName name="CMRight">#REF!</definedName>
     <definedName name="e.total">[2]同行评审!$M$8</definedName>
     <definedName name="effort.ta">[3]引言!#REF!</definedName>
@@ -64,15 +62,15 @@
     <definedName name="t.ut">[2]同行评审!#REF!</definedName>
     <definedName name="Total.type">#REF!</definedName>
     <definedName name="tp.ra">[2]同行评审!#REF!</definedName>
-    <definedName name="WORKDAYS">'[5]1.概述'!$H$4</definedName>
-    <definedName name="担当">[6]分类数据!$D$3</definedName>
-    <definedName name="工作产品">[6]分类数据!$E$3:$E$15</definedName>
-    <definedName name="阶段">[6]分类数据!$B$3:$B$14</definedName>
+    <definedName name="WORKDAYS">'[4]1.概述'!$H$4</definedName>
+    <definedName name="担当">[5]分类数据!$D$3</definedName>
+    <definedName name="工作产品">[5]分类数据!$E$3:$E$15</definedName>
+    <definedName name="阶段">[5]分类数据!$B$3:$B$14</definedName>
     <definedName name="里程碑">#REF!</definedName>
-    <definedName name="模块">[6]分类数据!$C$3</definedName>
+    <definedName name="模块">[5]分类数据!$C$3</definedName>
     <definedName name="模型">#REF!</definedName>
-    <definedName name="评审类别">[6]分类数据!$F$3:$F$5</definedName>
-    <definedName name="状态">[6]分类数据!$G$3:$G$4</definedName>
+    <definedName name="评审类别">[5]分类数据!$F$3:$F$5</definedName>
+    <definedName name="状态">[5]分类数据!$G$3:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -90,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -153,18 +151,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>小组日报（06.29-07.02）</t>
-  </si>
-  <si>
     <t>周一工作总结、周二工作计划</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>v1.2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组日报（06.29-07.03）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>小组日报（06.29-07.04）</t>
-  </si>
-  <si>
     <t>周三工作总结、周四工作计划</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -190,21 +178,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>小组日报（06.29-07.05）</t>
-  </si>
-  <si>
     <t>周四工作总结、周五工作计划</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>v1.5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组日报（06.29-07.06）</t>
-  </si>
-  <si>
-    <t>周五工作总结、下周一工作计划</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -312,12 +290,89 @@
     <t>下周一</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小组日报（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>07.13-07.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五工作总结</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓端图片功能实现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓端语音传输完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌面应用部分测试</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩ppt制作</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩PPT制作</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档工作收尾</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送有时候不能显示出来</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂待解决</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送图片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送语音</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -460,6 +515,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Frutiger LT 55 Roman"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -598,7 +664,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -636,12 +702,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -672,55 +732,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,17 +750,71 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -13694,11 +13763,21 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="封面"/>
-      <sheetName val="更改履历"/>
-      <sheetName val="小组日报(06.29-07.03)"/>
-      <sheetName val="小组日报(07.06-07.10) "/>
-      <sheetName val="小组日报(07.13-07.17) "/>
+      <sheetName val="发行控制"/>
+      <sheetName val="填写及缩略语说明"/>
+      <sheetName val="Cover"/>
+      <sheetName val="Project Status"/>
+      <sheetName val="Requirements Tracking"/>
+      <sheetName val="Size Tracking"/>
+      <sheetName val="Effort Tracking"/>
+      <sheetName val="Schedule Tracking"/>
+      <sheetName val="Quality Tracking"/>
+      <sheetName val="Review Tracking"/>
+      <sheetName val="Test Tracking"/>
+      <sheetName val="Critical Resource Tracking"/>
+      <sheetName val="Risk Tracking"/>
+      <sheetName val="PDB-DEV"/>
+      <sheetName val="分类数据"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -13706,6 +13785,16 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13784,47 +13873,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
-      <sheetName val="填写及缩略语说明"/>
-      <sheetName val="Cover"/>
-      <sheetName val="Project Status"/>
-      <sheetName val="Requirements Tracking"/>
-      <sheetName val="Size Tracking"/>
-      <sheetName val="Effort Tracking"/>
-      <sheetName val="Schedule Tracking"/>
-      <sheetName val="Quality Tracking"/>
-      <sheetName val="Review Tracking"/>
-      <sheetName val="Test Tracking"/>
-      <sheetName val="Critical Resource Tracking"/>
-      <sheetName val="Risk Tracking"/>
-      <sheetName val="PDB-DEV"/>
-      <sheetName val="分类数据"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="发行控制"/>
       <sheetName val="封面"/>
       <sheetName val="1.概述"/>
       <sheetName val="2.质量"/>
@@ -13853,7 +13901,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13998,23 +14046,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="17" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="封面"/>
-      <sheetName val="变更履历"/>
-      <sheetName val="计划"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14319,7 +14350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F8C7F71-9CFF-420D-B34D-069E18549E44}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:D27"/>
     </sheetView>
   </sheetViews>
@@ -14633,957 +14664,957 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5167D846-A4B4-4463-818E-5B0DFDB66803}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D27"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="16" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="5.4140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="6.9140625" style="23" customWidth="1"/>
-    <col min="10" max="13" width="9" style="16" customWidth="1"/>
-    <col min="14" max="14" width="10.4140625" style="16" customWidth="1"/>
-    <col min="15" max="256" width="9" style="16"/>
-    <col min="257" max="257" width="2.1640625" style="16" customWidth="1"/>
-    <col min="258" max="258" width="5.6640625" style="16" customWidth="1"/>
-    <col min="259" max="259" width="7.83203125" style="16" customWidth="1"/>
-    <col min="260" max="261" width="12.33203125" style="16" customWidth="1"/>
-    <col min="262" max="262" width="14.33203125" style="16" customWidth="1"/>
-    <col min="263" max="263" width="5.4140625" style="16" customWidth="1"/>
-    <col min="264" max="264" width="21.6640625" style="16" customWidth="1"/>
-    <col min="265" max="265" width="6.9140625" style="16" customWidth="1"/>
-    <col min="266" max="269" width="9" style="16"/>
-    <col min="270" max="270" width="10.4140625" style="16" customWidth="1"/>
-    <col min="271" max="512" width="9" style="16"/>
-    <col min="513" max="513" width="2.1640625" style="16" customWidth="1"/>
-    <col min="514" max="514" width="5.6640625" style="16" customWidth="1"/>
-    <col min="515" max="515" width="7.83203125" style="16" customWidth="1"/>
-    <col min="516" max="517" width="12.33203125" style="16" customWidth="1"/>
-    <col min="518" max="518" width="14.33203125" style="16" customWidth="1"/>
-    <col min="519" max="519" width="5.4140625" style="16" customWidth="1"/>
-    <col min="520" max="520" width="21.6640625" style="16" customWidth="1"/>
-    <col min="521" max="521" width="6.9140625" style="16" customWidth="1"/>
-    <col min="522" max="525" width="9" style="16"/>
-    <col min="526" max="526" width="10.4140625" style="16" customWidth="1"/>
-    <col min="527" max="768" width="9" style="16"/>
-    <col min="769" max="769" width="2.1640625" style="16" customWidth="1"/>
-    <col min="770" max="770" width="5.6640625" style="16" customWidth="1"/>
-    <col min="771" max="771" width="7.83203125" style="16" customWidth="1"/>
-    <col min="772" max="773" width="12.33203125" style="16" customWidth="1"/>
-    <col min="774" max="774" width="14.33203125" style="16" customWidth="1"/>
-    <col min="775" max="775" width="5.4140625" style="16" customWidth="1"/>
-    <col min="776" max="776" width="21.6640625" style="16" customWidth="1"/>
-    <col min="777" max="777" width="6.9140625" style="16" customWidth="1"/>
-    <col min="778" max="781" width="9" style="16"/>
-    <col min="782" max="782" width="10.4140625" style="16" customWidth="1"/>
-    <col min="783" max="1024" width="9" style="16"/>
-    <col min="1025" max="1025" width="2.1640625" style="16" customWidth="1"/>
-    <col min="1026" max="1026" width="5.6640625" style="16" customWidth="1"/>
-    <col min="1027" max="1027" width="7.83203125" style="16" customWidth="1"/>
-    <col min="1028" max="1029" width="12.33203125" style="16" customWidth="1"/>
-    <col min="1030" max="1030" width="14.33203125" style="16" customWidth="1"/>
-    <col min="1031" max="1031" width="5.4140625" style="16" customWidth="1"/>
-    <col min="1032" max="1032" width="21.6640625" style="16" customWidth="1"/>
-    <col min="1033" max="1033" width="6.9140625" style="16" customWidth="1"/>
-    <col min="1034" max="1037" width="9" style="16"/>
-    <col min="1038" max="1038" width="10.4140625" style="16" customWidth="1"/>
-    <col min="1039" max="1280" width="9" style="16"/>
-    <col min="1281" max="1281" width="2.1640625" style="16" customWidth="1"/>
-    <col min="1282" max="1282" width="5.6640625" style="16" customWidth="1"/>
-    <col min="1283" max="1283" width="7.83203125" style="16" customWidth="1"/>
-    <col min="1284" max="1285" width="12.33203125" style="16" customWidth="1"/>
-    <col min="1286" max="1286" width="14.33203125" style="16" customWidth="1"/>
-    <col min="1287" max="1287" width="5.4140625" style="16" customWidth="1"/>
-    <col min="1288" max="1288" width="21.6640625" style="16" customWidth="1"/>
-    <col min="1289" max="1289" width="6.9140625" style="16" customWidth="1"/>
-    <col min="1290" max="1293" width="9" style="16"/>
-    <col min="1294" max="1294" width="10.4140625" style="16" customWidth="1"/>
-    <col min="1295" max="1536" width="9" style="16"/>
-    <col min="1537" max="1537" width="2.1640625" style="16" customWidth="1"/>
-    <col min="1538" max="1538" width="5.6640625" style="16" customWidth="1"/>
-    <col min="1539" max="1539" width="7.83203125" style="16" customWidth="1"/>
-    <col min="1540" max="1541" width="12.33203125" style="16" customWidth="1"/>
-    <col min="1542" max="1542" width="14.33203125" style="16" customWidth="1"/>
-    <col min="1543" max="1543" width="5.4140625" style="16" customWidth="1"/>
-    <col min="1544" max="1544" width="21.6640625" style="16" customWidth="1"/>
-    <col min="1545" max="1545" width="6.9140625" style="16" customWidth="1"/>
-    <col min="1546" max="1549" width="9" style="16"/>
-    <col min="1550" max="1550" width="10.4140625" style="16" customWidth="1"/>
-    <col min="1551" max="1792" width="9" style="16"/>
-    <col min="1793" max="1793" width="2.1640625" style="16" customWidth="1"/>
-    <col min="1794" max="1794" width="5.6640625" style="16" customWidth="1"/>
-    <col min="1795" max="1795" width="7.83203125" style="16" customWidth="1"/>
-    <col min="1796" max="1797" width="12.33203125" style="16" customWidth="1"/>
-    <col min="1798" max="1798" width="14.33203125" style="16" customWidth="1"/>
-    <col min="1799" max="1799" width="5.4140625" style="16" customWidth="1"/>
-    <col min="1800" max="1800" width="21.6640625" style="16" customWidth="1"/>
-    <col min="1801" max="1801" width="6.9140625" style="16" customWidth="1"/>
-    <col min="1802" max="1805" width="9" style="16"/>
-    <col min="1806" max="1806" width="10.4140625" style="16" customWidth="1"/>
-    <col min="1807" max="2048" width="9" style="16"/>
-    <col min="2049" max="2049" width="2.1640625" style="16" customWidth="1"/>
-    <col min="2050" max="2050" width="5.6640625" style="16" customWidth="1"/>
-    <col min="2051" max="2051" width="7.83203125" style="16" customWidth="1"/>
-    <col min="2052" max="2053" width="12.33203125" style="16" customWidth="1"/>
-    <col min="2054" max="2054" width="14.33203125" style="16" customWidth="1"/>
-    <col min="2055" max="2055" width="5.4140625" style="16" customWidth="1"/>
-    <col min="2056" max="2056" width="21.6640625" style="16" customWidth="1"/>
-    <col min="2057" max="2057" width="6.9140625" style="16" customWidth="1"/>
-    <col min="2058" max="2061" width="9" style="16"/>
-    <col min="2062" max="2062" width="10.4140625" style="16" customWidth="1"/>
-    <col min="2063" max="2304" width="9" style="16"/>
-    <col min="2305" max="2305" width="2.1640625" style="16" customWidth="1"/>
-    <col min="2306" max="2306" width="5.6640625" style="16" customWidth="1"/>
-    <col min="2307" max="2307" width="7.83203125" style="16" customWidth="1"/>
-    <col min="2308" max="2309" width="12.33203125" style="16" customWidth="1"/>
-    <col min="2310" max="2310" width="14.33203125" style="16" customWidth="1"/>
-    <col min="2311" max="2311" width="5.4140625" style="16" customWidth="1"/>
-    <col min="2312" max="2312" width="21.6640625" style="16" customWidth="1"/>
-    <col min="2313" max="2313" width="6.9140625" style="16" customWidth="1"/>
-    <col min="2314" max="2317" width="9" style="16"/>
-    <col min="2318" max="2318" width="10.4140625" style="16" customWidth="1"/>
-    <col min="2319" max="2560" width="9" style="16"/>
-    <col min="2561" max="2561" width="2.1640625" style="16" customWidth="1"/>
-    <col min="2562" max="2562" width="5.6640625" style="16" customWidth="1"/>
-    <col min="2563" max="2563" width="7.83203125" style="16" customWidth="1"/>
-    <col min="2564" max="2565" width="12.33203125" style="16" customWidth="1"/>
-    <col min="2566" max="2566" width="14.33203125" style="16" customWidth="1"/>
-    <col min="2567" max="2567" width="5.4140625" style="16" customWidth="1"/>
-    <col min="2568" max="2568" width="21.6640625" style="16" customWidth="1"/>
-    <col min="2569" max="2569" width="6.9140625" style="16" customWidth="1"/>
-    <col min="2570" max="2573" width="9" style="16"/>
-    <col min="2574" max="2574" width="10.4140625" style="16" customWidth="1"/>
-    <col min="2575" max="2816" width="9" style="16"/>
-    <col min="2817" max="2817" width="2.1640625" style="16" customWidth="1"/>
-    <col min="2818" max="2818" width="5.6640625" style="16" customWidth="1"/>
-    <col min="2819" max="2819" width="7.83203125" style="16" customWidth="1"/>
-    <col min="2820" max="2821" width="12.33203125" style="16" customWidth="1"/>
-    <col min="2822" max="2822" width="14.33203125" style="16" customWidth="1"/>
-    <col min="2823" max="2823" width="5.4140625" style="16" customWidth="1"/>
-    <col min="2824" max="2824" width="21.6640625" style="16" customWidth="1"/>
-    <col min="2825" max="2825" width="6.9140625" style="16" customWidth="1"/>
-    <col min="2826" max="2829" width="9" style="16"/>
-    <col min="2830" max="2830" width="10.4140625" style="16" customWidth="1"/>
-    <col min="2831" max="3072" width="9" style="16"/>
-    <col min="3073" max="3073" width="2.1640625" style="16" customWidth="1"/>
-    <col min="3074" max="3074" width="5.6640625" style="16" customWidth="1"/>
-    <col min="3075" max="3075" width="7.83203125" style="16" customWidth="1"/>
-    <col min="3076" max="3077" width="12.33203125" style="16" customWidth="1"/>
-    <col min="3078" max="3078" width="14.33203125" style="16" customWidth="1"/>
-    <col min="3079" max="3079" width="5.4140625" style="16" customWidth="1"/>
-    <col min="3080" max="3080" width="21.6640625" style="16" customWidth="1"/>
-    <col min="3081" max="3081" width="6.9140625" style="16" customWidth="1"/>
-    <col min="3082" max="3085" width="9" style="16"/>
-    <col min="3086" max="3086" width="10.4140625" style="16" customWidth="1"/>
-    <col min="3087" max="3328" width="9" style="16"/>
-    <col min="3329" max="3329" width="2.1640625" style="16" customWidth="1"/>
-    <col min="3330" max="3330" width="5.6640625" style="16" customWidth="1"/>
-    <col min="3331" max="3331" width="7.83203125" style="16" customWidth="1"/>
-    <col min="3332" max="3333" width="12.33203125" style="16" customWidth="1"/>
-    <col min="3334" max="3334" width="14.33203125" style="16" customWidth="1"/>
-    <col min="3335" max="3335" width="5.4140625" style="16" customWidth="1"/>
-    <col min="3336" max="3336" width="21.6640625" style="16" customWidth="1"/>
-    <col min="3337" max="3337" width="6.9140625" style="16" customWidth="1"/>
-    <col min="3338" max="3341" width="9" style="16"/>
-    <col min="3342" max="3342" width="10.4140625" style="16" customWidth="1"/>
-    <col min="3343" max="3584" width="9" style="16"/>
-    <col min="3585" max="3585" width="2.1640625" style="16" customWidth="1"/>
-    <col min="3586" max="3586" width="5.6640625" style="16" customWidth="1"/>
-    <col min="3587" max="3587" width="7.83203125" style="16" customWidth="1"/>
-    <col min="3588" max="3589" width="12.33203125" style="16" customWidth="1"/>
-    <col min="3590" max="3590" width="14.33203125" style="16" customWidth="1"/>
-    <col min="3591" max="3591" width="5.4140625" style="16" customWidth="1"/>
-    <col min="3592" max="3592" width="21.6640625" style="16" customWidth="1"/>
-    <col min="3593" max="3593" width="6.9140625" style="16" customWidth="1"/>
-    <col min="3594" max="3597" width="9" style="16"/>
-    <col min="3598" max="3598" width="10.4140625" style="16" customWidth="1"/>
-    <col min="3599" max="3840" width="9" style="16"/>
-    <col min="3841" max="3841" width="2.1640625" style="16" customWidth="1"/>
-    <col min="3842" max="3842" width="5.6640625" style="16" customWidth="1"/>
-    <col min="3843" max="3843" width="7.83203125" style="16" customWidth="1"/>
-    <col min="3844" max="3845" width="12.33203125" style="16" customWidth="1"/>
-    <col min="3846" max="3846" width="14.33203125" style="16" customWidth="1"/>
-    <col min="3847" max="3847" width="5.4140625" style="16" customWidth="1"/>
-    <col min="3848" max="3848" width="21.6640625" style="16" customWidth="1"/>
-    <col min="3849" max="3849" width="6.9140625" style="16" customWidth="1"/>
-    <col min="3850" max="3853" width="9" style="16"/>
-    <col min="3854" max="3854" width="10.4140625" style="16" customWidth="1"/>
-    <col min="3855" max="4096" width="9" style="16"/>
-    <col min="4097" max="4097" width="2.1640625" style="16" customWidth="1"/>
-    <col min="4098" max="4098" width="5.6640625" style="16" customWidth="1"/>
-    <col min="4099" max="4099" width="7.83203125" style="16" customWidth="1"/>
-    <col min="4100" max="4101" width="12.33203125" style="16" customWidth="1"/>
-    <col min="4102" max="4102" width="14.33203125" style="16" customWidth="1"/>
-    <col min="4103" max="4103" width="5.4140625" style="16" customWidth="1"/>
-    <col min="4104" max="4104" width="21.6640625" style="16" customWidth="1"/>
-    <col min="4105" max="4105" width="6.9140625" style="16" customWidth="1"/>
-    <col min="4106" max="4109" width="9" style="16"/>
-    <col min="4110" max="4110" width="10.4140625" style="16" customWidth="1"/>
-    <col min="4111" max="4352" width="9" style="16"/>
-    <col min="4353" max="4353" width="2.1640625" style="16" customWidth="1"/>
-    <col min="4354" max="4354" width="5.6640625" style="16" customWidth="1"/>
-    <col min="4355" max="4355" width="7.83203125" style="16" customWidth="1"/>
-    <col min="4356" max="4357" width="12.33203125" style="16" customWidth="1"/>
-    <col min="4358" max="4358" width="14.33203125" style="16" customWidth="1"/>
-    <col min="4359" max="4359" width="5.4140625" style="16" customWidth="1"/>
-    <col min="4360" max="4360" width="21.6640625" style="16" customWidth="1"/>
-    <col min="4361" max="4361" width="6.9140625" style="16" customWidth="1"/>
-    <col min="4362" max="4365" width="9" style="16"/>
-    <col min="4366" max="4366" width="10.4140625" style="16" customWidth="1"/>
-    <col min="4367" max="4608" width="9" style="16"/>
-    <col min="4609" max="4609" width="2.1640625" style="16" customWidth="1"/>
-    <col min="4610" max="4610" width="5.6640625" style="16" customWidth="1"/>
-    <col min="4611" max="4611" width="7.83203125" style="16" customWidth="1"/>
-    <col min="4612" max="4613" width="12.33203125" style="16" customWidth="1"/>
-    <col min="4614" max="4614" width="14.33203125" style="16" customWidth="1"/>
-    <col min="4615" max="4615" width="5.4140625" style="16" customWidth="1"/>
-    <col min="4616" max="4616" width="21.6640625" style="16" customWidth="1"/>
-    <col min="4617" max="4617" width="6.9140625" style="16" customWidth="1"/>
-    <col min="4618" max="4621" width="9" style="16"/>
-    <col min="4622" max="4622" width="10.4140625" style="16" customWidth="1"/>
-    <col min="4623" max="4864" width="9" style="16"/>
-    <col min="4865" max="4865" width="2.1640625" style="16" customWidth="1"/>
-    <col min="4866" max="4866" width="5.6640625" style="16" customWidth="1"/>
-    <col min="4867" max="4867" width="7.83203125" style="16" customWidth="1"/>
-    <col min="4868" max="4869" width="12.33203125" style="16" customWidth="1"/>
-    <col min="4870" max="4870" width="14.33203125" style="16" customWidth="1"/>
-    <col min="4871" max="4871" width="5.4140625" style="16" customWidth="1"/>
-    <col min="4872" max="4872" width="21.6640625" style="16" customWidth="1"/>
-    <col min="4873" max="4873" width="6.9140625" style="16" customWidth="1"/>
-    <col min="4874" max="4877" width="9" style="16"/>
-    <col min="4878" max="4878" width="10.4140625" style="16" customWidth="1"/>
-    <col min="4879" max="5120" width="9" style="16"/>
-    <col min="5121" max="5121" width="2.1640625" style="16" customWidth="1"/>
-    <col min="5122" max="5122" width="5.6640625" style="16" customWidth="1"/>
-    <col min="5123" max="5123" width="7.83203125" style="16" customWidth="1"/>
-    <col min="5124" max="5125" width="12.33203125" style="16" customWidth="1"/>
-    <col min="5126" max="5126" width="14.33203125" style="16" customWidth="1"/>
-    <col min="5127" max="5127" width="5.4140625" style="16" customWidth="1"/>
-    <col min="5128" max="5128" width="21.6640625" style="16" customWidth="1"/>
-    <col min="5129" max="5129" width="6.9140625" style="16" customWidth="1"/>
-    <col min="5130" max="5133" width="9" style="16"/>
-    <col min="5134" max="5134" width="10.4140625" style="16" customWidth="1"/>
-    <col min="5135" max="5376" width="9" style="16"/>
-    <col min="5377" max="5377" width="2.1640625" style="16" customWidth="1"/>
-    <col min="5378" max="5378" width="5.6640625" style="16" customWidth="1"/>
-    <col min="5379" max="5379" width="7.83203125" style="16" customWidth="1"/>
-    <col min="5380" max="5381" width="12.33203125" style="16" customWidth="1"/>
-    <col min="5382" max="5382" width="14.33203125" style="16" customWidth="1"/>
-    <col min="5383" max="5383" width="5.4140625" style="16" customWidth="1"/>
-    <col min="5384" max="5384" width="21.6640625" style="16" customWidth="1"/>
-    <col min="5385" max="5385" width="6.9140625" style="16" customWidth="1"/>
-    <col min="5386" max="5389" width="9" style="16"/>
-    <col min="5390" max="5390" width="10.4140625" style="16" customWidth="1"/>
-    <col min="5391" max="5632" width="9" style="16"/>
-    <col min="5633" max="5633" width="2.1640625" style="16" customWidth="1"/>
-    <col min="5634" max="5634" width="5.6640625" style="16" customWidth="1"/>
-    <col min="5635" max="5635" width="7.83203125" style="16" customWidth="1"/>
-    <col min="5636" max="5637" width="12.33203125" style="16" customWidth="1"/>
-    <col min="5638" max="5638" width="14.33203125" style="16" customWidth="1"/>
-    <col min="5639" max="5639" width="5.4140625" style="16" customWidth="1"/>
-    <col min="5640" max="5640" width="21.6640625" style="16" customWidth="1"/>
-    <col min="5641" max="5641" width="6.9140625" style="16" customWidth="1"/>
-    <col min="5642" max="5645" width="9" style="16"/>
-    <col min="5646" max="5646" width="10.4140625" style="16" customWidth="1"/>
-    <col min="5647" max="5888" width="9" style="16"/>
-    <col min="5889" max="5889" width="2.1640625" style="16" customWidth="1"/>
-    <col min="5890" max="5890" width="5.6640625" style="16" customWidth="1"/>
-    <col min="5891" max="5891" width="7.83203125" style="16" customWidth="1"/>
-    <col min="5892" max="5893" width="12.33203125" style="16" customWidth="1"/>
-    <col min="5894" max="5894" width="14.33203125" style="16" customWidth="1"/>
-    <col min="5895" max="5895" width="5.4140625" style="16" customWidth="1"/>
-    <col min="5896" max="5896" width="21.6640625" style="16" customWidth="1"/>
-    <col min="5897" max="5897" width="6.9140625" style="16" customWidth="1"/>
-    <col min="5898" max="5901" width="9" style="16"/>
-    <col min="5902" max="5902" width="10.4140625" style="16" customWidth="1"/>
-    <col min="5903" max="6144" width="9" style="16"/>
-    <col min="6145" max="6145" width="2.1640625" style="16" customWidth="1"/>
-    <col min="6146" max="6146" width="5.6640625" style="16" customWidth="1"/>
-    <col min="6147" max="6147" width="7.83203125" style="16" customWidth="1"/>
-    <col min="6148" max="6149" width="12.33203125" style="16" customWidth="1"/>
-    <col min="6150" max="6150" width="14.33203125" style="16" customWidth="1"/>
-    <col min="6151" max="6151" width="5.4140625" style="16" customWidth="1"/>
-    <col min="6152" max="6152" width="21.6640625" style="16" customWidth="1"/>
-    <col min="6153" max="6153" width="6.9140625" style="16" customWidth="1"/>
-    <col min="6154" max="6157" width="9" style="16"/>
-    <col min="6158" max="6158" width="10.4140625" style="16" customWidth="1"/>
-    <col min="6159" max="6400" width="9" style="16"/>
-    <col min="6401" max="6401" width="2.1640625" style="16" customWidth="1"/>
-    <col min="6402" max="6402" width="5.6640625" style="16" customWidth="1"/>
-    <col min="6403" max="6403" width="7.83203125" style="16" customWidth="1"/>
-    <col min="6404" max="6405" width="12.33203125" style="16" customWidth="1"/>
-    <col min="6406" max="6406" width="14.33203125" style="16" customWidth="1"/>
-    <col min="6407" max="6407" width="5.4140625" style="16" customWidth="1"/>
-    <col min="6408" max="6408" width="21.6640625" style="16" customWidth="1"/>
-    <col min="6409" max="6409" width="6.9140625" style="16" customWidth="1"/>
-    <col min="6410" max="6413" width="9" style="16"/>
-    <col min="6414" max="6414" width="10.4140625" style="16" customWidth="1"/>
-    <col min="6415" max="6656" width="9" style="16"/>
-    <col min="6657" max="6657" width="2.1640625" style="16" customWidth="1"/>
-    <col min="6658" max="6658" width="5.6640625" style="16" customWidth="1"/>
-    <col min="6659" max="6659" width="7.83203125" style="16" customWidth="1"/>
-    <col min="6660" max="6661" width="12.33203125" style="16" customWidth="1"/>
-    <col min="6662" max="6662" width="14.33203125" style="16" customWidth="1"/>
-    <col min="6663" max="6663" width="5.4140625" style="16" customWidth="1"/>
-    <col min="6664" max="6664" width="21.6640625" style="16" customWidth="1"/>
-    <col min="6665" max="6665" width="6.9140625" style="16" customWidth="1"/>
-    <col min="6666" max="6669" width="9" style="16"/>
-    <col min="6670" max="6670" width="10.4140625" style="16" customWidth="1"/>
-    <col min="6671" max="6912" width="9" style="16"/>
-    <col min="6913" max="6913" width="2.1640625" style="16" customWidth="1"/>
-    <col min="6914" max="6914" width="5.6640625" style="16" customWidth="1"/>
-    <col min="6915" max="6915" width="7.83203125" style="16" customWidth="1"/>
-    <col min="6916" max="6917" width="12.33203125" style="16" customWidth="1"/>
-    <col min="6918" max="6918" width="14.33203125" style="16" customWidth="1"/>
-    <col min="6919" max="6919" width="5.4140625" style="16" customWidth="1"/>
-    <col min="6920" max="6920" width="21.6640625" style="16" customWidth="1"/>
-    <col min="6921" max="6921" width="6.9140625" style="16" customWidth="1"/>
-    <col min="6922" max="6925" width="9" style="16"/>
-    <col min="6926" max="6926" width="10.4140625" style="16" customWidth="1"/>
-    <col min="6927" max="7168" width="9" style="16"/>
-    <col min="7169" max="7169" width="2.1640625" style="16" customWidth="1"/>
-    <col min="7170" max="7170" width="5.6640625" style="16" customWidth="1"/>
-    <col min="7171" max="7171" width="7.83203125" style="16" customWidth="1"/>
-    <col min="7172" max="7173" width="12.33203125" style="16" customWidth="1"/>
-    <col min="7174" max="7174" width="14.33203125" style="16" customWidth="1"/>
-    <col min="7175" max="7175" width="5.4140625" style="16" customWidth="1"/>
-    <col min="7176" max="7176" width="21.6640625" style="16" customWidth="1"/>
-    <col min="7177" max="7177" width="6.9140625" style="16" customWidth="1"/>
-    <col min="7178" max="7181" width="9" style="16"/>
-    <col min="7182" max="7182" width="10.4140625" style="16" customWidth="1"/>
-    <col min="7183" max="7424" width="9" style="16"/>
-    <col min="7425" max="7425" width="2.1640625" style="16" customWidth="1"/>
-    <col min="7426" max="7426" width="5.6640625" style="16" customWidth="1"/>
-    <col min="7427" max="7427" width="7.83203125" style="16" customWidth="1"/>
-    <col min="7428" max="7429" width="12.33203125" style="16" customWidth="1"/>
-    <col min="7430" max="7430" width="14.33203125" style="16" customWidth="1"/>
-    <col min="7431" max="7431" width="5.4140625" style="16" customWidth="1"/>
-    <col min="7432" max="7432" width="21.6640625" style="16" customWidth="1"/>
-    <col min="7433" max="7433" width="6.9140625" style="16" customWidth="1"/>
-    <col min="7434" max="7437" width="9" style="16"/>
-    <col min="7438" max="7438" width="10.4140625" style="16" customWidth="1"/>
-    <col min="7439" max="7680" width="9" style="16"/>
-    <col min="7681" max="7681" width="2.1640625" style="16" customWidth="1"/>
-    <col min="7682" max="7682" width="5.6640625" style="16" customWidth="1"/>
-    <col min="7683" max="7683" width="7.83203125" style="16" customWidth="1"/>
-    <col min="7684" max="7685" width="12.33203125" style="16" customWidth="1"/>
-    <col min="7686" max="7686" width="14.33203125" style="16" customWidth="1"/>
-    <col min="7687" max="7687" width="5.4140625" style="16" customWidth="1"/>
-    <col min="7688" max="7688" width="21.6640625" style="16" customWidth="1"/>
-    <col min="7689" max="7689" width="6.9140625" style="16" customWidth="1"/>
-    <col min="7690" max="7693" width="9" style="16"/>
-    <col min="7694" max="7694" width="10.4140625" style="16" customWidth="1"/>
-    <col min="7695" max="7936" width="9" style="16"/>
-    <col min="7937" max="7937" width="2.1640625" style="16" customWidth="1"/>
-    <col min="7938" max="7938" width="5.6640625" style="16" customWidth="1"/>
-    <col min="7939" max="7939" width="7.83203125" style="16" customWidth="1"/>
-    <col min="7940" max="7941" width="12.33203125" style="16" customWidth="1"/>
-    <col min="7942" max="7942" width="14.33203125" style="16" customWidth="1"/>
-    <col min="7943" max="7943" width="5.4140625" style="16" customWidth="1"/>
-    <col min="7944" max="7944" width="21.6640625" style="16" customWidth="1"/>
-    <col min="7945" max="7945" width="6.9140625" style="16" customWidth="1"/>
-    <col min="7946" max="7949" width="9" style="16"/>
-    <col min="7950" max="7950" width="10.4140625" style="16" customWidth="1"/>
-    <col min="7951" max="8192" width="9" style="16"/>
-    <col min="8193" max="8193" width="2.1640625" style="16" customWidth="1"/>
-    <col min="8194" max="8194" width="5.6640625" style="16" customWidth="1"/>
-    <col min="8195" max="8195" width="7.83203125" style="16" customWidth="1"/>
-    <col min="8196" max="8197" width="12.33203125" style="16" customWidth="1"/>
-    <col min="8198" max="8198" width="14.33203125" style="16" customWidth="1"/>
-    <col min="8199" max="8199" width="5.4140625" style="16" customWidth="1"/>
-    <col min="8200" max="8200" width="21.6640625" style="16" customWidth="1"/>
-    <col min="8201" max="8201" width="6.9140625" style="16" customWidth="1"/>
-    <col min="8202" max="8205" width="9" style="16"/>
-    <col min="8206" max="8206" width="10.4140625" style="16" customWidth="1"/>
-    <col min="8207" max="8448" width="9" style="16"/>
-    <col min="8449" max="8449" width="2.1640625" style="16" customWidth="1"/>
-    <col min="8450" max="8450" width="5.6640625" style="16" customWidth="1"/>
-    <col min="8451" max="8451" width="7.83203125" style="16" customWidth="1"/>
-    <col min="8452" max="8453" width="12.33203125" style="16" customWidth="1"/>
-    <col min="8454" max="8454" width="14.33203125" style="16" customWidth="1"/>
-    <col min="8455" max="8455" width="5.4140625" style="16" customWidth="1"/>
-    <col min="8456" max="8456" width="21.6640625" style="16" customWidth="1"/>
-    <col min="8457" max="8457" width="6.9140625" style="16" customWidth="1"/>
-    <col min="8458" max="8461" width="9" style="16"/>
-    <col min="8462" max="8462" width="10.4140625" style="16" customWidth="1"/>
-    <col min="8463" max="8704" width="9" style="16"/>
-    <col min="8705" max="8705" width="2.1640625" style="16" customWidth="1"/>
-    <col min="8706" max="8706" width="5.6640625" style="16" customWidth="1"/>
-    <col min="8707" max="8707" width="7.83203125" style="16" customWidth="1"/>
-    <col min="8708" max="8709" width="12.33203125" style="16" customWidth="1"/>
-    <col min="8710" max="8710" width="14.33203125" style="16" customWidth="1"/>
-    <col min="8711" max="8711" width="5.4140625" style="16" customWidth="1"/>
-    <col min="8712" max="8712" width="21.6640625" style="16" customWidth="1"/>
-    <col min="8713" max="8713" width="6.9140625" style="16" customWidth="1"/>
-    <col min="8714" max="8717" width="9" style="16"/>
-    <col min="8718" max="8718" width="10.4140625" style="16" customWidth="1"/>
-    <col min="8719" max="8960" width="9" style="16"/>
-    <col min="8961" max="8961" width="2.1640625" style="16" customWidth="1"/>
-    <col min="8962" max="8962" width="5.6640625" style="16" customWidth="1"/>
-    <col min="8963" max="8963" width="7.83203125" style="16" customWidth="1"/>
-    <col min="8964" max="8965" width="12.33203125" style="16" customWidth="1"/>
-    <col min="8966" max="8966" width="14.33203125" style="16" customWidth="1"/>
-    <col min="8967" max="8967" width="5.4140625" style="16" customWidth="1"/>
-    <col min="8968" max="8968" width="21.6640625" style="16" customWidth="1"/>
-    <col min="8969" max="8969" width="6.9140625" style="16" customWidth="1"/>
-    <col min="8970" max="8973" width="9" style="16"/>
-    <col min="8974" max="8974" width="10.4140625" style="16" customWidth="1"/>
-    <col min="8975" max="9216" width="9" style="16"/>
-    <col min="9217" max="9217" width="2.1640625" style="16" customWidth="1"/>
-    <col min="9218" max="9218" width="5.6640625" style="16" customWidth="1"/>
-    <col min="9219" max="9219" width="7.83203125" style="16" customWidth="1"/>
-    <col min="9220" max="9221" width="12.33203125" style="16" customWidth="1"/>
-    <col min="9222" max="9222" width="14.33203125" style="16" customWidth="1"/>
-    <col min="9223" max="9223" width="5.4140625" style="16" customWidth="1"/>
-    <col min="9224" max="9224" width="21.6640625" style="16" customWidth="1"/>
-    <col min="9225" max="9225" width="6.9140625" style="16" customWidth="1"/>
-    <col min="9226" max="9229" width="9" style="16"/>
-    <col min="9230" max="9230" width="10.4140625" style="16" customWidth="1"/>
-    <col min="9231" max="9472" width="9" style="16"/>
-    <col min="9473" max="9473" width="2.1640625" style="16" customWidth="1"/>
-    <col min="9474" max="9474" width="5.6640625" style="16" customWidth="1"/>
-    <col min="9475" max="9475" width="7.83203125" style="16" customWidth="1"/>
-    <col min="9476" max="9477" width="12.33203125" style="16" customWidth="1"/>
-    <col min="9478" max="9478" width="14.33203125" style="16" customWidth="1"/>
-    <col min="9479" max="9479" width="5.4140625" style="16" customWidth="1"/>
-    <col min="9480" max="9480" width="21.6640625" style="16" customWidth="1"/>
-    <col min="9481" max="9481" width="6.9140625" style="16" customWidth="1"/>
-    <col min="9482" max="9485" width="9" style="16"/>
-    <col min="9486" max="9486" width="10.4140625" style="16" customWidth="1"/>
-    <col min="9487" max="9728" width="9" style="16"/>
-    <col min="9729" max="9729" width="2.1640625" style="16" customWidth="1"/>
-    <col min="9730" max="9730" width="5.6640625" style="16" customWidth="1"/>
-    <col min="9731" max="9731" width="7.83203125" style="16" customWidth="1"/>
-    <col min="9732" max="9733" width="12.33203125" style="16" customWidth="1"/>
-    <col min="9734" max="9734" width="14.33203125" style="16" customWidth="1"/>
-    <col min="9735" max="9735" width="5.4140625" style="16" customWidth="1"/>
-    <col min="9736" max="9736" width="21.6640625" style="16" customWidth="1"/>
-    <col min="9737" max="9737" width="6.9140625" style="16" customWidth="1"/>
-    <col min="9738" max="9741" width="9" style="16"/>
-    <col min="9742" max="9742" width="10.4140625" style="16" customWidth="1"/>
-    <col min="9743" max="9984" width="9" style="16"/>
-    <col min="9985" max="9985" width="2.1640625" style="16" customWidth="1"/>
-    <col min="9986" max="9986" width="5.6640625" style="16" customWidth="1"/>
-    <col min="9987" max="9987" width="7.83203125" style="16" customWidth="1"/>
-    <col min="9988" max="9989" width="12.33203125" style="16" customWidth="1"/>
-    <col min="9990" max="9990" width="14.33203125" style="16" customWidth="1"/>
-    <col min="9991" max="9991" width="5.4140625" style="16" customWidth="1"/>
-    <col min="9992" max="9992" width="21.6640625" style="16" customWidth="1"/>
-    <col min="9993" max="9993" width="6.9140625" style="16" customWidth="1"/>
-    <col min="9994" max="9997" width="9" style="16"/>
-    <col min="9998" max="9998" width="10.4140625" style="16" customWidth="1"/>
-    <col min="9999" max="10240" width="9" style="16"/>
-    <col min="10241" max="10241" width="2.1640625" style="16" customWidth="1"/>
-    <col min="10242" max="10242" width="5.6640625" style="16" customWidth="1"/>
-    <col min="10243" max="10243" width="7.83203125" style="16" customWidth="1"/>
-    <col min="10244" max="10245" width="12.33203125" style="16" customWidth="1"/>
-    <col min="10246" max="10246" width="14.33203125" style="16" customWidth="1"/>
-    <col min="10247" max="10247" width="5.4140625" style="16" customWidth="1"/>
-    <col min="10248" max="10248" width="21.6640625" style="16" customWidth="1"/>
-    <col min="10249" max="10249" width="6.9140625" style="16" customWidth="1"/>
-    <col min="10250" max="10253" width="9" style="16"/>
-    <col min="10254" max="10254" width="10.4140625" style="16" customWidth="1"/>
-    <col min="10255" max="10496" width="9" style="16"/>
-    <col min="10497" max="10497" width="2.1640625" style="16" customWidth="1"/>
-    <col min="10498" max="10498" width="5.6640625" style="16" customWidth="1"/>
-    <col min="10499" max="10499" width="7.83203125" style="16" customWidth="1"/>
-    <col min="10500" max="10501" width="12.33203125" style="16" customWidth="1"/>
-    <col min="10502" max="10502" width="14.33203125" style="16" customWidth="1"/>
-    <col min="10503" max="10503" width="5.4140625" style="16" customWidth="1"/>
-    <col min="10504" max="10504" width="21.6640625" style="16" customWidth="1"/>
-    <col min="10505" max="10505" width="6.9140625" style="16" customWidth="1"/>
-    <col min="10506" max="10509" width="9" style="16"/>
-    <col min="10510" max="10510" width="10.4140625" style="16" customWidth="1"/>
-    <col min="10511" max="10752" width="9" style="16"/>
-    <col min="10753" max="10753" width="2.1640625" style="16" customWidth="1"/>
-    <col min="10754" max="10754" width="5.6640625" style="16" customWidth="1"/>
-    <col min="10755" max="10755" width="7.83203125" style="16" customWidth="1"/>
-    <col min="10756" max="10757" width="12.33203125" style="16" customWidth="1"/>
-    <col min="10758" max="10758" width="14.33203125" style="16" customWidth="1"/>
-    <col min="10759" max="10759" width="5.4140625" style="16" customWidth="1"/>
-    <col min="10760" max="10760" width="21.6640625" style="16" customWidth="1"/>
-    <col min="10761" max="10761" width="6.9140625" style="16" customWidth="1"/>
-    <col min="10762" max="10765" width="9" style="16"/>
-    <col min="10766" max="10766" width="10.4140625" style="16" customWidth="1"/>
-    <col min="10767" max="11008" width="9" style="16"/>
-    <col min="11009" max="11009" width="2.1640625" style="16" customWidth="1"/>
-    <col min="11010" max="11010" width="5.6640625" style="16" customWidth="1"/>
-    <col min="11011" max="11011" width="7.83203125" style="16" customWidth="1"/>
-    <col min="11012" max="11013" width="12.33203125" style="16" customWidth="1"/>
-    <col min="11014" max="11014" width="14.33203125" style="16" customWidth="1"/>
-    <col min="11015" max="11015" width="5.4140625" style="16" customWidth="1"/>
-    <col min="11016" max="11016" width="21.6640625" style="16" customWidth="1"/>
-    <col min="11017" max="11017" width="6.9140625" style="16" customWidth="1"/>
-    <col min="11018" max="11021" width="9" style="16"/>
-    <col min="11022" max="11022" width="10.4140625" style="16" customWidth="1"/>
-    <col min="11023" max="11264" width="9" style="16"/>
-    <col min="11265" max="11265" width="2.1640625" style="16" customWidth="1"/>
-    <col min="11266" max="11266" width="5.6640625" style="16" customWidth="1"/>
-    <col min="11267" max="11267" width="7.83203125" style="16" customWidth="1"/>
-    <col min="11268" max="11269" width="12.33203125" style="16" customWidth="1"/>
-    <col min="11270" max="11270" width="14.33203125" style="16" customWidth="1"/>
-    <col min="11271" max="11271" width="5.4140625" style="16" customWidth="1"/>
-    <col min="11272" max="11272" width="21.6640625" style="16" customWidth="1"/>
-    <col min="11273" max="11273" width="6.9140625" style="16" customWidth="1"/>
-    <col min="11274" max="11277" width="9" style="16"/>
-    <col min="11278" max="11278" width="10.4140625" style="16" customWidth="1"/>
-    <col min="11279" max="11520" width="9" style="16"/>
-    <col min="11521" max="11521" width="2.1640625" style="16" customWidth="1"/>
-    <col min="11522" max="11522" width="5.6640625" style="16" customWidth="1"/>
-    <col min="11523" max="11523" width="7.83203125" style="16" customWidth="1"/>
-    <col min="11524" max="11525" width="12.33203125" style="16" customWidth="1"/>
-    <col min="11526" max="11526" width="14.33203125" style="16" customWidth="1"/>
-    <col min="11527" max="11527" width="5.4140625" style="16" customWidth="1"/>
-    <col min="11528" max="11528" width="21.6640625" style="16" customWidth="1"/>
-    <col min="11529" max="11529" width="6.9140625" style="16" customWidth="1"/>
-    <col min="11530" max="11533" width="9" style="16"/>
-    <col min="11534" max="11534" width="10.4140625" style="16" customWidth="1"/>
-    <col min="11535" max="11776" width="9" style="16"/>
-    <col min="11777" max="11777" width="2.1640625" style="16" customWidth="1"/>
-    <col min="11778" max="11778" width="5.6640625" style="16" customWidth="1"/>
-    <col min="11779" max="11779" width="7.83203125" style="16" customWidth="1"/>
-    <col min="11780" max="11781" width="12.33203125" style="16" customWidth="1"/>
-    <col min="11782" max="11782" width="14.33203125" style="16" customWidth="1"/>
-    <col min="11783" max="11783" width="5.4140625" style="16" customWidth="1"/>
-    <col min="11784" max="11784" width="21.6640625" style="16" customWidth="1"/>
-    <col min="11785" max="11785" width="6.9140625" style="16" customWidth="1"/>
-    <col min="11786" max="11789" width="9" style="16"/>
-    <col min="11790" max="11790" width="10.4140625" style="16" customWidth="1"/>
-    <col min="11791" max="12032" width="9" style="16"/>
-    <col min="12033" max="12033" width="2.1640625" style="16" customWidth="1"/>
-    <col min="12034" max="12034" width="5.6640625" style="16" customWidth="1"/>
-    <col min="12035" max="12035" width="7.83203125" style="16" customWidth="1"/>
-    <col min="12036" max="12037" width="12.33203125" style="16" customWidth="1"/>
-    <col min="12038" max="12038" width="14.33203125" style="16" customWidth="1"/>
-    <col min="12039" max="12039" width="5.4140625" style="16" customWidth="1"/>
-    <col min="12040" max="12040" width="21.6640625" style="16" customWidth="1"/>
-    <col min="12041" max="12041" width="6.9140625" style="16" customWidth="1"/>
-    <col min="12042" max="12045" width="9" style="16"/>
-    <col min="12046" max="12046" width="10.4140625" style="16" customWidth="1"/>
-    <col min="12047" max="12288" width="9" style="16"/>
-    <col min="12289" max="12289" width="2.1640625" style="16" customWidth="1"/>
-    <col min="12290" max="12290" width="5.6640625" style="16" customWidth="1"/>
-    <col min="12291" max="12291" width="7.83203125" style="16" customWidth="1"/>
-    <col min="12292" max="12293" width="12.33203125" style="16" customWidth="1"/>
-    <col min="12294" max="12294" width="14.33203125" style="16" customWidth="1"/>
-    <col min="12295" max="12295" width="5.4140625" style="16" customWidth="1"/>
-    <col min="12296" max="12296" width="21.6640625" style="16" customWidth="1"/>
-    <col min="12297" max="12297" width="6.9140625" style="16" customWidth="1"/>
-    <col min="12298" max="12301" width="9" style="16"/>
-    <col min="12302" max="12302" width="10.4140625" style="16" customWidth="1"/>
-    <col min="12303" max="12544" width="9" style="16"/>
-    <col min="12545" max="12545" width="2.1640625" style="16" customWidth="1"/>
-    <col min="12546" max="12546" width="5.6640625" style="16" customWidth="1"/>
-    <col min="12547" max="12547" width="7.83203125" style="16" customWidth="1"/>
-    <col min="12548" max="12549" width="12.33203125" style="16" customWidth="1"/>
-    <col min="12550" max="12550" width="14.33203125" style="16" customWidth="1"/>
-    <col min="12551" max="12551" width="5.4140625" style="16" customWidth="1"/>
-    <col min="12552" max="12552" width="21.6640625" style="16" customWidth="1"/>
-    <col min="12553" max="12553" width="6.9140625" style="16" customWidth="1"/>
-    <col min="12554" max="12557" width="9" style="16"/>
-    <col min="12558" max="12558" width="10.4140625" style="16" customWidth="1"/>
-    <col min="12559" max="12800" width="9" style="16"/>
-    <col min="12801" max="12801" width="2.1640625" style="16" customWidth="1"/>
-    <col min="12802" max="12802" width="5.6640625" style="16" customWidth="1"/>
-    <col min="12803" max="12803" width="7.83203125" style="16" customWidth="1"/>
-    <col min="12804" max="12805" width="12.33203125" style="16" customWidth="1"/>
-    <col min="12806" max="12806" width="14.33203125" style="16" customWidth="1"/>
-    <col min="12807" max="12807" width="5.4140625" style="16" customWidth="1"/>
-    <col min="12808" max="12808" width="21.6640625" style="16" customWidth="1"/>
-    <col min="12809" max="12809" width="6.9140625" style="16" customWidth="1"/>
-    <col min="12810" max="12813" width="9" style="16"/>
-    <col min="12814" max="12814" width="10.4140625" style="16" customWidth="1"/>
-    <col min="12815" max="13056" width="9" style="16"/>
-    <col min="13057" max="13057" width="2.1640625" style="16" customWidth="1"/>
-    <col min="13058" max="13058" width="5.6640625" style="16" customWidth="1"/>
-    <col min="13059" max="13059" width="7.83203125" style="16" customWidth="1"/>
-    <col min="13060" max="13061" width="12.33203125" style="16" customWidth="1"/>
-    <col min="13062" max="13062" width="14.33203125" style="16" customWidth="1"/>
-    <col min="13063" max="13063" width="5.4140625" style="16" customWidth="1"/>
-    <col min="13064" max="13064" width="21.6640625" style="16" customWidth="1"/>
-    <col min="13065" max="13065" width="6.9140625" style="16" customWidth="1"/>
-    <col min="13066" max="13069" width="9" style="16"/>
-    <col min="13070" max="13070" width="10.4140625" style="16" customWidth="1"/>
-    <col min="13071" max="13312" width="9" style="16"/>
-    <col min="13313" max="13313" width="2.1640625" style="16" customWidth="1"/>
-    <col min="13314" max="13314" width="5.6640625" style="16" customWidth="1"/>
-    <col min="13315" max="13315" width="7.83203125" style="16" customWidth="1"/>
-    <col min="13316" max="13317" width="12.33203125" style="16" customWidth="1"/>
-    <col min="13318" max="13318" width="14.33203125" style="16" customWidth="1"/>
-    <col min="13319" max="13319" width="5.4140625" style="16" customWidth="1"/>
-    <col min="13320" max="13320" width="21.6640625" style="16" customWidth="1"/>
-    <col min="13321" max="13321" width="6.9140625" style="16" customWidth="1"/>
-    <col min="13322" max="13325" width="9" style="16"/>
-    <col min="13326" max="13326" width="10.4140625" style="16" customWidth="1"/>
-    <col min="13327" max="13568" width="9" style="16"/>
-    <col min="13569" max="13569" width="2.1640625" style="16" customWidth="1"/>
-    <col min="13570" max="13570" width="5.6640625" style="16" customWidth="1"/>
-    <col min="13571" max="13571" width="7.83203125" style="16" customWidth="1"/>
-    <col min="13572" max="13573" width="12.33203125" style="16" customWidth="1"/>
-    <col min="13574" max="13574" width="14.33203125" style="16" customWidth="1"/>
-    <col min="13575" max="13575" width="5.4140625" style="16" customWidth="1"/>
-    <col min="13576" max="13576" width="21.6640625" style="16" customWidth="1"/>
-    <col min="13577" max="13577" width="6.9140625" style="16" customWidth="1"/>
-    <col min="13578" max="13581" width="9" style="16"/>
-    <col min="13582" max="13582" width="10.4140625" style="16" customWidth="1"/>
-    <col min="13583" max="13824" width="9" style="16"/>
-    <col min="13825" max="13825" width="2.1640625" style="16" customWidth="1"/>
-    <col min="13826" max="13826" width="5.6640625" style="16" customWidth="1"/>
-    <col min="13827" max="13827" width="7.83203125" style="16" customWidth="1"/>
-    <col min="13828" max="13829" width="12.33203125" style="16" customWidth="1"/>
-    <col min="13830" max="13830" width="14.33203125" style="16" customWidth="1"/>
-    <col min="13831" max="13831" width="5.4140625" style="16" customWidth="1"/>
-    <col min="13832" max="13832" width="21.6640625" style="16" customWidth="1"/>
-    <col min="13833" max="13833" width="6.9140625" style="16" customWidth="1"/>
-    <col min="13834" max="13837" width="9" style="16"/>
-    <col min="13838" max="13838" width="10.4140625" style="16" customWidth="1"/>
-    <col min="13839" max="14080" width="9" style="16"/>
-    <col min="14081" max="14081" width="2.1640625" style="16" customWidth="1"/>
-    <col min="14082" max="14082" width="5.6640625" style="16" customWidth="1"/>
-    <col min="14083" max="14083" width="7.83203125" style="16" customWidth="1"/>
-    <col min="14084" max="14085" width="12.33203125" style="16" customWidth="1"/>
-    <col min="14086" max="14086" width="14.33203125" style="16" customWidth="1"/>
-    <col min="14087" max="14087" width="5.4140625" style="16" customWidth="1"/>
-    <col min="14088" max="14088" width="21.6640625" style="16" customWidth="1"/>
-    <col min="14089" max="14089" width="6.9140625" style="16" customWidth="1"/>
-    <col min="14090" max="14093" width="9" style="16"/>
-    <col min="14094" max="14094" width="10.4140625" style="16" customWidth="1"/>
-    <col min="14095" max="14336" width="9" style="16"/>
-    <col min="14337" max="14337" width="2.1640625" style="16" customWidth="1"/>
-    <col min="14338" max="14338" width="5.6640625" style="16" customWidth="1"/>
-    <col min="14339" max="14339" width="7.83203125" style="16" customWidth="1"/>
-    <col min="14340" max="14341" width="12.33203125" style="16" customWidth="1"/>
-    <col min="14342" max="14342" width="14.33203125" style="16" customWidth="1"/>
-    <col min="14343" max="14343" width="5.4140625" style="16" customWidth="1"/>
-    <col min="14344" max="14344" width="21.6640625" style="16" customWidth="1"/>
-    <col min="14345" max="14345" width="6.9140625" style="16" customWidth="1"/>
-    <col min="14346" max="14349" width="9" style="16"/>
-    <col min="14350" max="14350" width="10.4140625" style="16" customWidth="1"/>
-    <col min="14351" max="14592" width="9" style="16"/>
-    <col min="14593" max="14593" width="2.1640625" style="16" customWidth="1"/>
-    <col min="14594" max="14594" width="5.6640625" style="16" customWidth="1"/>
-    <col min="14595" max="14595" width="7.83203125" style="16" customWidth="1"/>
-    <col min="14596" max="14597" width="12.33203125" style="16" customWidth="1"/>
-    <col min="14598" max="14598" width="14.33203125" style="16" customWidth="1"/>
-    <col min="14599" max="14599" width="5.4140625" style="16" customWidth="1"/>
-    <col min="14600" max="14600" width="21.6640625" style="16" customWidth="1"/>
-    <col min="14601" max="14601" width="6.9140625" style="16" customWidth="1"/>
-    <col min="14602" max="14605" width="9" style="16"/>
-    <col min="14606" max="14606" width="10.4140625" style="16" customWidth="1"/>
-    <col min="14607" max="14848" width="9" style="16"/>
-    <col min="14849" max="14849" width="2.1640625" style="16" customWidth="1"/>
-    <col min="14850" max="14850" width="5.6640625" style="16" customWidth="1"/>
-    <col min="14851" max="14851" width="7.83203125" style="16" customWidth="1"/>
-    <col min="14852" max="14853" width="12.33203125" style="16" customWidth="1"/>
-    <col min="14854" max="14854" width="14.33203125" style="16" customWidth="1"/>
-    <col min="14855" max="14855" width="5.4140625" style="16" customWidth="1"/>
-    <col min="14856" max="14856" width="21.6640625" style="16" customWidth="1"/>
-    <col min="14857" max="14857" width="6.9140625" style="16" customWidth="1"/>
-    <col min="14858" max="14861" width="9" style="16"/>
-    <col min="14862" max="14862" width="10.4140625" style="16" customWidth="1"/>
-    <col min="14863" max="15104" width="9" style="16"/>
-    <col min="15105" max="15105" width="2.1640625" style="16" customWidth="1"/>
-    <col min="15106" max="15106" width="5.6640625" style="16" customWidth="1"/>
-    <col min="15107" max="15107" width="7.83203125" style="16" customWidth="1"/>
-    <col min="15108" max="15109" width="12.33203125" style="16" customWidth="1"/>
-    <col min="15110" max="15110" width="14.33203125" style="16" customWidth="1"/>
-    <col min="15111" max="15111" width="5.4140625" style="16" customWidth="1"/>
-    <col min="15112" max="15112" width="21.6640625" style="16" customWidth="1"/>
-    <col min="15113" max="15113" width="6.9140625" style="16" customWidth="1"/>
-    <col min="15114" max="15117" width="9" style="16"/>
-    <col min="15118" max="15118" width="10.4140625" style="16" customWidth="1"/>
-    <col min="15119" max="15360" width="9" style="16"/>
-    <col min="15361" max="15361" width="2.1640625" style="16" customWidth="1"/>
-    <col min="15362" max="15362" width="5.6640625" style="16" customWidth="1"/>
-    <col min="15363" max="15363" width="7.83203125" style="16" customWidth="1"/>
-    <col min="15364" max="15365" width="12.33203125" style="16" customWidth="1"/>
-    <col min="15366" max="15366" width="14.33203125" style="16" customWidth="1"/>
-    <col min="15367" max="15367" width="5.4140625" style="16" customWidth="1"/>
-    <col min="15368" max="15368" width="21.6640625" style="16" customWidth="1"/>
-    <col min="15369" max="15369" width="6.9140625" style="16" customWidth="1"/>
-    <col min="15370" max="15373" width="9" style="16"/>
-    <col min="15374" max="15374" width="10.4140625" style="16" customWidth="1"/>
-    <col min="15375" max="15616" width="9" style="16"/>
-    <col min="15617" max="15617" width="2.1640625" style="16" customWidth="1"/>
-    <col min="15618" max="15618" width="5.6640625" style="16" customWidth="1"/>
-    <col min="15619" max="15619" width="7.83203125" style="16" customWidth="1"/>
-    <col min="15620" max="15621" width="12.33203125" style="16" customWidth="1"/>
-    <col min="15622" max="15622" width="14.33203125" style="16" customWidth="1"/>
-    <col min="15623" max="15623" width="5.4140625" style="16" customWidth="1"/>
-    <col min="15624" max="15624" width="21.6640625" style="16" customWidth="1"/>
-    <col min="15625" max="15625" width="6.9140625" style="16" customWidth="1"/>
-    <col min="15626" max="15629" width="9" style="16"/>
-    <col min="15630" max="15630" width="10.4140625" style="16" customWidth="1"/>
-    <col min="15631" max="15872" width="9" style="16"/>
-    <col min="15873" max="15873" width="2.1640625" style="16" customWidth="1"/>
-    <col min="15874" max="15874" width="5.6640625" style="16" customWidth="1"/>
-    <col min="15875" max="15875" width="7.83203125" style="16" customWidth="1"/>
-    <col min="15876" max="15877" width="12.33203125" style="16" customWidth="1"/>
-    <col min="15878" max="15878" width="14.33203125" style="16" customWidth="1"/>
-    <col min="15879" max="15879" width="5.4140625" style="16" customWidth="1"/>
-    <col min="15880" max="15880" width="21.6640625" style="16" customWidth="1"/>
-    <col min="15881" max="15881" width="6.9140625" style="16" customWidth="1"/>
-    <col min="15882" max="15885" width="9" style="16"/>
-    <col min="15886" max="15886" width="10.4140625" style="16" customWidth="1"/>
-    <col min="15887" max="16128" width="9" style="16"/>
-    <col min="16129" max="16129" width="2.1640625" style="16" customWidth="1"/>
-    <col min="16130" max="16130" width="5.6640625" style="16" customWidth="1"/>
-    <col min="16131" max="16131" width="7.83203125" style="16" customWidth="1"/>
-    <col min="16132" max="16133" width="12.33203125" style="16" customWidth="1"/>
-    <col min="16134" max="16134" width="14.33203125" style="16" customWidth="1"/>
-    <col min="16135" max="16135" width="5.4140625" style="16" customWidth="1"/>
-    <col min="16136" max="16136" width="21.6640625" style="16" customWidth="1"/>
-    <col min="16137" max="16137" width="6.9140625" style="16" customWidth="1"/>
-    <col min="16138" max="16141" width="9" style="16"/>
-    <col min="16142" max="16142" width="10.4140625" style="16" customWidth="1"/>
-    <col min="16143" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="2.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="14" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="5.4140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="6.9140625" style="21" customWidth="1"/>
+    <col min="10" max="13" width="9" style="14" customWidth="1"/>
+    <col min="14" max="14" width="10.4140625" style="14" customWidth="1"/>
+    <col min="15" max="256" width="9" style="14"/>
+    <col min="257" max="257" width="2.1640625" style="14" customWidth="1"/>
+    <col min="258" max="258" width="5.6640625" style="14" customWidth="1"/>
+    <col min="259" max="259" width="7.83203125" style="14" customWidth="1"/>
+    <col min="260" max="261" width="12.33203125" style="14" customWidth="1"/>
+    <col min="262" max="262" width="14.33203125" style="14" customWidth="1"/>
+    <col min="263" max="263" width="5.4140625" style="14" customWidth="1"/>
+    <col min="264" max="264" width="21.6640625" style="14" customWidth="1"/>
+    <col min="265" max="265" width="6.9140625" style="14" customWidth="1"/>
+    <col min="266" max="269" width="9" style="14"/>
+    <col min="270" max="270" width="10.4140625" style="14" customWidth="1"/>
+    <col min="271" max="512" width="9" style="14"/>
+    <col min="513" max="513" width="2.1640625" style="14" customWidth="1"/>
+    <col min="514" max="514" width="5.6640625" style="14" customWidth="1"/>
+    <col min="515" max="515" width="7.83203125" style="14" customWidth="1"/>
+    <col min="516" max="517" width="12.33203125" style="14" customWidth="1"/>
+    <col min="518" max="518" width="14.33203125" style="14" customWidth="1"/>
+    <col min="519" max="519" width="5.4140625" style="14" customWidth="1"/>
+    <col min="520" max="520" width="21.6640625" style="14" customWidth="1"/>
+    <col min="521" max="521" width="6.9140625" style="14" customWidth="1"/>
+    <col min="522" max="525" width="9" style="14"/>
+    <col min="526" max="526" width="10.4140625" style="14" customWidth="1"/>
+    <col min="527" max="768" width="9" style="14"/>
+    <col min="769" max="769" width="2.1640625" style="14" customWidth="1"/>
+    <col min="770" max="770" width="5.6640625" style="14" customWidth="1"/>
+    <col min="771" max="771" width="7.83203125" style="14" customWidth="1"/>
+    <col min="772" max="773" width="12.33203125" style="14" customWidth="1"/>
+    <col min="774" max="774" width="14.33203125" style="14" customWidth="1"/>
+    <col min="775" max="775" width="5.4140625" style="14" customWidth="1"/>
+    <col min="776" max="776" width="21.6640625" style="14" customWidth="1"/>
+    <col min="777" max="777" width="6.9140625" style="14" customWidth="1"/>
+    <col min="778" max="781" width="9" style="14"/>
+    <col min="782" max="782" width="10.4140625" style="14" customWidth="1"/>
+    <col min="783" max="1024" width="9" style="14"/>
+    <col min="1025" max="1025" width="2.1640625" style="14" customWidth="1"/>
+    <col min="1026" max="1026" width="5.6640625" style="14" customWidth="1"/>
+    <col min="1027" max="1027" width="7.83203125" style="14" customWidth="1"/>
+    <col min="1028" max="1029" width="12.33203125" style="14" customWidth="1"/>
+    <col min="1030" max="1030" width="14.33203125" style="14" customWidth="1"/>
+    <col min="1031" max="1031" width="5.4140625" style="14" customWidth="1"/>
+    <col min="1032" max="1032" width="21.6640625" style="14" customWidth="1"/>
+    <col min="1033" max="1033" width="6.9140625" style="14" customWidth="1"/>
+    <col min="1034" max="1037" width="9" style="14"/>
+    <col min="1038" max="1038" width="10.4140625" style="14" customWidth="1"/>
+    <col min="1039" max="1280" width="9" style="14"/>
+    <col min="1281" max="1281" width="2.1640625" style="14" customWidth="1"/>
+    <col min="1282" max="1282" width="5.6640625" style="14" customWidth="1"/>
+    <col min="1283" max="1283" width="7.83203125" style="14" customWidth="1"/>
+    <col min="1284" max="1285" width="12.33203125" style="14" customWidth="1"/>
+    <col min="1286" max="1286" width="14.33203125" style="14" customWidth="1"/>
+    <col min="1287" max="1287" width="5.4140625" style="14" customWidth="1"/>
+    <col min="1288" max="1288" width="21.6640625" style="14" customWidth="1"/>
+    <col min="1289" max="1289" width="6.9140625" style="14" customWidth="1"/>
+    <col min="1290" max="1293" width="9" style="14"/>
+    <col min="1294" max="1294" width="10.4140625" style="14" customWidth="1"/>
+    <col min="1295" max="1536" width="9" style="14"/>
+    <col min="1537" max="1537" width="2.1640625" style="14" customWidth="1"/>
+    <col min="1538" max="1538" width="5.6640625" style="14" customWidth="1"/>
+    <col min="1539" max="1539" width="7.83203125" style="14" customWidth="1"/>
+    <col min="1540" max="1541" width="12.33203125" style="14" customWidth="1"/>
+    <col min="1542" max="1542" width="14.33203125" style="14" customWidth="1"/>
+    <col min="1543" max="1543" width="5.4140625" style="14" customWidth="1"/>
+    <col min="1544" max="1544" width="21.6640625" style="14" customWidth="1"/>
+    <col min="1545" max="1545" width="6.9140625" style="14" customWidth="1"/>
+    <col min="1546" max="1549" width="9" style="14"/>
+    <col min="1550" max="1550" width="10.4140625" style="14" customWidth="1"/>
+    <col min="1551" max="1792" width="9" style="14"/>
+    <col min="1793" max="1793" width="2.1640625" style="14" customWidth="1"/>
+    <col min="1794" max="1794" width="5.6640625" style="14" customWidth="1"/>
+    <col min="1795" max="1795" width="7.83203125" style="14" customWidth="1"/>
+    <col min="1796" max="1797" width="12.33203125" style="14" customWidth="1"/>
+    <col min="1798" max="1798" width="14.33203125" style="14" customWidth="1"/>
+    <col min="1799" max="1799" width="5.4140625" style="14" customWidth="1"/>
+    <col min="1800" max="1800" width="21.6640625" style="14" customWidth="1"/>
+    <col min="1801" max="1801" width="6.9140625" style="14" customWidth="1"/>
+    <col min="1802" max="1805" width="9" style="14"/>
+    <col min="1806" max="1806" width="10.4140625" style="14" customWidth="1"/>
+    <col min="1807" max="2048" width="9" style="14"/>
+    <col min="2049" max="2049" width="2.1640625" style="14" customWidth="1"/>
+    <col min="2050" max="2050" width="5.6640625" style="14" customWidth="1"/>
+    <col min="2051" max="2051" width="7.83203125" style="14" customWidth="1"/>
+    <col min="2052" max="2053" width="12.33203125" style="14" customWidth="1"/>
+    <col min="2054" max="2054" width="14.33203125" style="14" customWidth="1"/>
+    <col min="2055" max="2055" width="5.4140625" style="14" customWidth="1"/>
+    <col min="2056" max="2056" width="21.6640625" style="14" customWidth="1"/>
+    <col min="2057" max="2057" width="6.9140625" style="14" customWidth="1"/>
+    <col min="2058" max="2061" width="9" style="14"/>
+    <col min="2062" max="2062" width="10.4140625" style="14" customWidth="1"/>
+    <col min="2063" max="2304" width="9" style="14"/>
+    <col min="2305" max="2305" width="2.1640625" style="14" customWidth="1"/>
+    <col min="2306" max="2306" width="5.6640625" style="14" customWidth="1"/>
+    <col min="2307" max="2307" width="7.83203125" style="14" customWidth="1"/>
+    <col min="2308" max="2309" width="12.33203125" style="14" customWidth="1"/>
+    <col min="2310" max="2310" width="14.33203125" style="14" customWidth="1"/>
+    <col min="2311" max="2311" width="5.4140625" style="14" customWidth="1"/>
+    <col min="2312" max="2312" width="21.6640625" style="14" customWidth="1"/>
+    <col min="2313" max="2313" width="6.9140625" style="14" customWidth="1"/>
+    <col min="2314" max="2317" width="9" style="14"/>
+    <col min="2318" max="2318" width="10.4140625" style="14" customWidth="1"/>
+    <col min="2319" max="2560" width="9" style="14"/>
+    <col min="2561" max="2561" width="2.1640625" style="14" customWidth="1"/>
+    <col min="2562" max="2562" width="5.6640625" style="14" customWidth="1"/>
+    <col min="2563" max="2563" width="7.83203125" style="14" customWidth="1"/>
+    <col min="2564" max="2565" width="12.33203125" style="14" customWidth="1"/>
+    <col min="2566" max="2566" width="14.33203125" style="14" customWidth="1"/>
+    <col min="2567" max="2567" width="5.4140625" style="14" customWidth="1"/>
+    <col min="2568" max="2568" width="21.6640625" style="14" customWidth="1"/>
+    <col min="2569" max="2569" width="6.9140625" style="14" customWidth="1"/>
+    <col min="2570" max="2573" width="9" style="14"/>
+    <col min="2574" max="2574" width="10.4140625" style="14" customWidth="1"/>
+    <col min="2575" max="2816" width="9" style="14"/>
+    <col min="2817" max="2817" width="2.1640625" style="14" customWidth="1"/>
+    <col min="2818" max="2818" width="5.6640625" style="14" customWidth="1"/>
+    <col min="2819" max="2819" width="7.83203125" style="14" customWidth="1"/>
+    <col min="2820" max="2821" width="12.33203125" style="14" customWidth="1"/>
+    <col min="2822" max="2822" width="14.33203125" style="14" customWidth="1"/>
+    <col min="2823" max="2823" width="5.4140625" style="14" customWidth="1"/>
+    <col min="2824" max="2824" width="21.6640625" style="14" customWidth="1"/>
+    <col min="2825" max="2825" width="6.9140625" style="14" customWidth="1"/>
+    <col min="2826" max="2829" width="9" style="14"/>
+    <col min="2830" max="2830" width="10.4140625" style="14" customWidth="1"/>
+    <col min="2831" max="3072" width="9" style="14"/>
+    <col min="3073" max="3073" width="2.1640625" style="14" customWidth="1"/>
+    <col min="3074" max="3074" width="5.6640625" style="14" customWidth="1"/>
+    <col min="3075" max="3075" width="7.83203125" style="14" customWidth="1"/>
+    <col min="3076" max="3077" width="12.33203125" style="14" customWidth="1"/>
+    <col min="3078" max="3078" width="14.33203125" style="14" customWidth="1"/>
+    <col min="3079" max="3079" width="5.4140625" style="14" customWidth="1"/>
+    <col min="3080" max="3080" width="21.6640625" style="14" customWidth="1"/>
+    <col min="3081" max="3081" width="6.9140625" style="14" customWidth="1"/>
+    <col min="3082" max="3085" width="9" style="14"/>
+    <col min="3086" max="3086" width="10.4140625" style="14" customWidth="1"/>
+    <col min="3087" max="3328" width="9" style="14"/>
+    <col min="3329" max="3329" width="2.1640625" style="14" customWidth="1"/>
+    <col min="3330" max="3330" width="5.6640625" style="14" customWidth="1"/>
+    <col min="3331" max="3331" width="7.83203125" style="14" customWidth="1"/>
+    <col min="3332" max="3333" width="12.33203125" style="14" customWidth="1"/>
+    <col min="3334" max="3334" width="14.33203125" style="14" customWidth="1"/>
+    <col min="3335" max="3335" width="5.4140625" style="14" customWidth="1"/>
+    <col min="3336" max="3336" width="21.6640625" style="14" customWidth="1"/>
+    <col min="3337" max="3337" width="6.9140625" style="14" customWidth="1"/>
+    <col min="3338" max="3341" width="9" style="14"/>
+    <col min="3342" max="3342" width="10.4140625" style="14" customWidth="1"/>
+    <col min="3343" max="3584" width="9" style="14"/>
+    <col min="3585" max="3585" width="2.1640625" style="14" customWidth="1"/>
+    <col min="3586" max="3586" width="5.6640625" style="14" customWidth="1"/>
+    <col min="3587" max="3587" width="7.83203125" style="14" customWidth="1"/>
+    <col min="3588" max="3589" width="12.33203125" style="14" customWidth="1"/>
+    <col min="3590" max="3590" width="14.33203125" style="14" customWidth="1"/>
+    <col min="3591" max="3591" width="5.4140625" style="14" customWidth="1"/>
+    <col min="3592" max="3592" width="21.6640625" style="14" customWidth="1"/>
+    <col min="3593" max="3593" width="6.9140625" style="14" customWidth="1"/>
+    <col min="3594" max="3597" width="9" style="14"/>
+    <col min="3598" max="3598" width="10.4140625" style="14" customWidth="1"/>
+    <col min="3599" max="3840" width="9" style="14"/>
+    <col min="3841" max="3841" width="2.1640625" style="14" customWidth="1"/>
+    <col min="3842" max="3842" width="5.6640625" style="14" customWidth="1"/>
+    <col min="3843" max="3843" width="7.83203125" style="14" customWidth="1"/>
+    <col min="3844" max="3845" width="12.33203125" style="14" customWidth="1"/>
+    <col min="3846" max="3846" width="14.33203125" style="14" customWidth="1"/>
+    <col min="3847" max="3847" width="5.4140625" style="14" customWidth="1"/>
+    <col min="3848" max="3848" width="21.6640625" style="14" customWidth="1"/>
+    <col min="3849" max="3849" width="6.9140625" style="14" customWidth="1"/>
+    <col min="3850" max="3853" width="9" style="14"/>
+    <col min="3854" max="3854" width="10.4140625" style="14" customWidth="1"/>
+    <col min="3855" max="4096" width="9" style="14"/>
+    <col min="4097" max="4097" width="2.1640625" style="14" customWidth="1"/>
+    <col min="4098" max="4098" width="5.6640625" style="14" customWidth="1"/>
+    <col min="4099" max="4099" width="7.83203125" style="14" customWidth="1"/>
+    <col min="4100" max="4101" width="12.33203125" style="14" customWidth="1"/>
+    <col min="4102" max="4102" width="14.33203125" style="14" customWidth="1"/>
+    <col min="4103" max="4103" width="5.4140625" style="14" customWidth="1"/>
+    <col min="4104" max="4104" width="21.6640625" style="14" customWidth="1"/>
+    <col min="4105" max="4105" width="6.9140625" style="14" customWidth="1"/>
+    <col min="4106" max="4109" width="9" style="14"/>
+    <col min="4110" max="4110" width="10.4140625" style="14" customWidth="1"/>
+    <col min="4111" max="4352" width="9" style="14"/>
+    <col min="4353" max="4353" width="2.1640625" style="14" customWidth="1"/>
+    <col min="4354" max="4354" width="5.6640625" style="14" customWidth="1"/>
+    <col min="4355" max="4355" width="7.83203125" style="14" customWidth="1"/>
+    <col min="4356" max="4357" width="12.33203125" style="14" customWidth="1"/>
+    <col min="4358" max="4358" width="14.33203125" style="14" customWidth="1"/>
+    <col min="4359" max="4359" width="5.4140625" style="14" customWidth="1"/>
+    <col min="4360" max="4360" width="21.6640625" style="14" customWidth="1"/>
+    <col min="4361" max="4361" width="6.9140625" style="14" customWidth="1"/>
+    <col min="4362" max="4365" width="9" style="14"/>
+    <col min="4366" max="4366" width="10.4140625" style="14" customWidth="1"/>
+    <col min="4367" max="4608" width="9" style="14"/>
+    <col min="4609" max="4609" width="2.1640625" style="14" customWidth="1"/>
+    <col min="4610" max="4610" width="5.6640625" style="14" customWidth="1"/>
+    <col min="4611" max="4611" width="7.83203125" style="14" customWidth="1"/>
+    <col min="4612" max="4613" width="12.33203125" style="14" customWidth="1"/>
+    <col min="4614" max="4614" width="14.33203125" style="14" customWidth="1"/>
+    <col min="4615" max="4615" width="5.4140625" style="14" customWidth="1"/>
+    <col min="4616" max="4616" width="21.6640625" style="14" customWidth="1"/>
+    <col min="4617" max="4617" width="6.9140625" style="14" customWidth="1"/>
+    <col min="4618" max="4621" width="9" style="14"/>
+    <col min="4622" max="4622" width="10.4140625" style="14" customWidth="1"/>
+    <col min="4623" max="4864" width="9" style="14"/>
+    <col min="4865" max="4865" width="2.1640625" style="14" customWidth="1"/>
+    <col min="4866" max="4866" width="5.6640625" style="14" customWidth="1"/>
+    <col min="4867" max="4867" width="7.83203125" style="14" customWidth="1"/>
+    <col min="4868" max="4869" width="12.33203125" style="14" customWidth="1"/>
+    <col min="4870" max="4870" width="14.33203125" style="14" customWidth="1"/>
+    <col min="4871" max="4871" width="5.4140625" style="14" customWidth="1"/>
+    <col min="4872" max="4872" width="21.6640625" style="14" customWidth="1"/>
+    <col min="4873" max="4873" width="6.9140625" style="14" customWidth="1"/>
+    <col min="4874" max="4877" width="9" style="14"/>
+    <col min="4878" max="4878" width="10.4140625" style="14" customWidth="1"/>
+    <col min="4879" max="5120" width="9" style="14"/>
+    <col min="5121" max="5121" width="2.1640625" style="14" customWidth="1"/>
+    <col min="5122" max="5122" width="5.6640625" style="14" customWidth="1"/>
+    <col min="5123" max="5123" width="7.83203125" style="14" customWidth="1"/>
+    <col min="5124" max="5125" width="12.33203125" style="14" customWidth="1"/>
+    <col min="5126" max="5126" width="14.33203125" style="14" customWidth="1"/>
+    <col min="5127" max="5127" width="5.4140625" style="14" customWidth="1"/>
+    <col min="5128" max="5128" width="21.6640625" style="14" customWidth="1"/>
+    <col min="5129" max="5129" width="6.9140625" style="14" customWidth="1"/>
+    <col min="5130" max="5133" width="9" style="14"/>
+    <col min="5134" max="5134" width="10.4140625" style="14" customWidth="1"/>
+    <col min="5135" max="5376" width="9" style="14"/>
+    <col min="5377" max="5377" width="2.1640625" style="14" customWidth="1"/>
+    <col min="5378" max="5378" width="5.6640625" style="14" customWidth="1"/>
+    <col min="5379" max="5379" width="7.83203125" style="14" customWidth="1"/>
+    <col min="5380" max="5381" width="12.33203125" style="14" customWidth="1"/>
+    <col min="5382" max="5382" width="14.33203125" style="14" customWidth="1"/>
+    <col min="5383" max="5383" width="5.4140625" style="14" customWidth="1"/>
+    <col min="5384" max="5384" width="21.6640625" style="14" customWidth="1"/>
+    <col min="5385" max="5385" width="6.9140625" style="14" customWidth="1"/>
+    <col min="5386" max="5389" width="9" style="14"/>
+    <col min="5390" max="5390" width="10.4140625" style="14" customWidth="1"/>
+    <col min="5391" max="5632" width="9" style="14"/>
+    <col min="5633" max="5633" width="2.1640625" style="14" customWidth="1"/>
+    <col min="5634" max="5634" width="5.6640625" style="14" customWidth="1"/>
+    <col min="5635" max="5635" width="7.83203125" style="14" customWidth="1"/>
+    <col min="5636" max="5637" width="12.33203125" style="14" customWidth="1"/>
+    <col min="5638" max="5638" width="14.33203125" style="14" customWidth="1"/>
+    <col min="5639" max="5639" width="5.4140625" style="14" customWidth="1"/>
+    <col min="5640" max="5640" width="21.6640625" style="14" customWidth="1"/>
+    <col min="5641" max="5641" width="6.9140625" style="14" customWidth="1"/>
+    <col min="5642" max="5645" width="9" style="14"/>
+    <col min="5646" max="5646" width="10.4140625" style="14" customWidth="1"/>
+    <col min="5647" max="5888" width="9" style="14"/>
+    <col min="5889" max="5889" width="2.1640625" style="14" customWidth="1"/>
+    <col min="5890" max="5890" width="5.6640625" style="14" customWidth="1"/>
+    <col min="5891" max="5891" width="7.83203125" style="14" customWidth="1"/>
+    <col min="5892" max="5893" width="12.33203125" style="14" customWidth="1"/>
+    <col min="5894" max="5894" width="14.33203125" style="14" customWidth="1"/>
+    <col min="5895" max="5895" width="5.4140625" style="14" customWidth="1"/>
+    <col min="5896" max="5896" width="21.6640625" style="14" customWidth="1"/>
+    <col min="5897" max="5897" width="6.9140625" style="14" customWidth="1"/>
+    <col min="5898" max="5901" width="9" style="14"/>
+    <col min="5902" max="5902" width="10.4140625" style="14" customWidth="1"/>
+    <col min="5903" max="6144" width="9" style="14"/>
+    <col min="6145" max="6145" width="2.1640625" style="14" customWidth="1"/>
+    <col min="6146" max="6146" width="5.6640625" style="14" customWidth="1"/>
+    <col min="6147" max="6147" width="7.83203125" style="14" customWidth="1"/>
+    <col min="6148" max="6149" width="12.33203125" style="14" customWidth="1"/>
+    <col min="6150" max="6150" width="14.33203125" style="14" customWidth="1"/>
+    <col min="6151" max="6151" width="5.4140625" style="14" customWidth="1"/>
+    <col min="6152" max="6152" width="21.6640625" style="14" customWidth="1"/>
+    <col min="6153" max="6153" width="6.9140625" style="14" customWidth="1"/>
+    <col min="6154" max="6157" width="9" style="14"/>
+    <col min="6158" max="6158" width="10.4140625" style="14" customWidth="1"/>
+    <col min="6159" max="6400" width="9" style="14"/>
+    <col min="6401" max="6401" width="2.1640625" style="14" customWidth="1"/>
+    <col min="6402" max="6402" width="5.6640625" style="14" customWidth="1"/>
+    <col min="6403" max="6403" width="7.83203125" style="14" customWidth="1"/>
+    <col min="6404" max="6405" width="12.33203125" style="14" customWidth="1"/>
+    <col min="6406" max="6406" width="14.33203125" style="14" customWidth="1"/>
+    <col min="6407" max="6407" width="5.4140625" style="14" customWidth="1"/>
+    <col min="6408" max="6408" width="21.6640625" style="14" customWidth="1"/>
+    <col min="6409" max="6409" width="6.9140625" style="14" customWidth="1"/>
+    <col min="6410" max="6413" width="9" style="14"/>
+    <col min="6414" max="6414" width="10.4140625" style="14" customWidth="1"/>
+    <col min="6415" max="6656" width="9" style="14"/>
+    <col min="6657" max="6657" width="2.1640625" style="14" customWidth="1"/>
+    <col min="6658" max="6658" width="5.6640625" style="14" customWidth="1"/>
+    <col min="6659" max="6659" width="7.83203125" style="14" customWidth="1"/>
+    <col min="6660" max="6661" width="12.33203125" style="14" customWidth="1"/>
+    <col min="6662" max="6662" width="14.33203125" style="14" customWidth="1"/>
+    <col min="6663" max="6663" width="5.4140625" style="14" customWidth="1"/>
+    <col min="6664" max="6664" width="21.6640625" style="14" customWidth="1"/>
+    <col min="6665" max="6665" width="6.9140625" style="14" customWidth="1"/>
+    <col min="6666" max="6669" width="9" style="14"/>
+    <col min="6670" max="6670" width="10.4140625" style="14" customWidth="1"/>
+    <col min="6671" max="6912" width="9" style="14"/>
+    <col min="6913" max="6913" width="2.1640625" style="14" customWidth="1"/>
+    <col min="6914" max="6914" width="5.6640625" style="14" customWidth="1"/>
+    <col min="6915" max="6915" width="7.83203125" style="14" customWidth="1"/>
+    <col min="6916" max="6917" width="12.33203125" style="14" customWidth="1"/>
+    <col min="6918" max="6918" width="14.33203125" style="14" customWidth="1"/>
+    <col min="6919" max="6919" width="5.4140625" style="14" customWidth="1"/>
+    <col min="6920" max="6920" width="21.6640625" style="14" customWidth="1"/>
+    <col min="6921" max="6921" width="6.9140625" style="14" customWidth="1"/>
+    <col min="6922" max="6925" width="9" style="14"/>
+    <col min="6926" max="6926" width="10.4140625" style="14" customWidth="1"/>
+    <col min="6927" max="7168" width="9" style="14"/>
+    <col min="7169" max="7169" width="2.1640625" style="14" customWidth="1"/>
+    <col min="7170" max="7170" width="5.6640625" style="14" customWidth="1"/>
+    <col min="7171" max="7171" width="7.83203125" style="14" customWidth="1"/>
+    <col min="7172" max="7173" width="12.33203125" style="14" customWidth="1"/>
+    <col min="7174" max="7174" width="14.33203125" style="14" customWidth="1"/>
+    <col min="7175" max="7175" width="5.4140625" style="14" customWidth="1"/>
+    <col min="7176" max="7176" width="21.6640625" style="14" customWidth="1"/>
+    <col min="7177" max="7177" width="6.9140625" style="14" customWidth="1"/>
+    <col min="7178" max="7181" width="9" style="14"/>
+    <col min="7182" max="7182" width="10.4140625" style="14" customWidth="1"/>
+    <col min="7183" max="7424" width="9" style="14"/>
+    <col min="7425" max="7425" width="2.1640625" style="14" customWidth="1"/>
+    <col min="7426" max="7426" width="5.6640625" style="14" customWidth="1"/>
+    <col min="7427" max="7427" width="7.83203125" style="14" customWidth="1"/>
+    <col min="7428" max="7429" width="12.33203125" style="14" customWidth="1"/>
+    <col min="7430" max="7430" width="14.33203125" style="14" customWidth="1"/>
+    <col min="7431" max="7431" width="5.4140625" style="14" customWidth="1"/>
+    <col min="7432" max="7432" width="21.6640625" style="14" customWidth="1"/>
+    <col min="7433" max="7433" width="6.9140625" style="14" customWidth="1"/>
+    <col min="7434" max="7437" width="9" style="14"/>
+    <col min="7438" max="7438" width="10.4140625" style="14" customWidth="1"/>
+    <col min="7439" max="7680" width="9" style="14"/>
+    <col min="7681" max="7681" width="2.1640625" style="14" customWidth="1"/>
+    <col min="7682" max="7682" width="5.6640625" style="14" customWidth="1"/>
+    <col min="7683" max="7683" width="7.83203125" style="14" customWidth="1"/>
+    <col min="7684" max="7685" width="12.33203125" style="14" customWidth="1"/>
+    <col min="7686" max="7686" width="14.33203125" style="14" customWidth="1"/>
+    <col min="7687" max="7687" width="5.4140625" style="14" customWidth="1"/>
+    <col min="7688" max="7688" width="21.6640625" style="14" customWidth="1"/>
+    <col min="7689" max="7689" width="6.9140625" style="14" customWidth="1"/>
+    <col min="7690" max="7693" width="9" style="14"/>
+    <col min="7694" max="7694" width="10.4140625" style="14" customWidth="1"/>
+    <col min="7695" max="7936" width="9" style="14"/>
+    <col min="7937" max="7937" width="2.1640625" style="14" customWidth="1"/>
+    <col min="7938" max="7938" width="5.6640625" style="14" customWidth="1"/>
+    <col min="7939" max="7939" width="7.83203125" style="14" customWidth="1"/>
+    <col min="7940" max="7941" width="12.33203125" style="14" customWidth="1"/>
+    <col min="7942" max="7942" width="14.33203125" style="14" customWidth="1"/>
+    <col min="7943" max="7943" width="5.4140625" style="14" customWidth="1"/>
+    <col min="7944" max="7944" width="21.6640625" style="14" customWidth="1"/>
+    <col min="7945" max="7945" width="6.9140625" style="14" customWidth="1"/>
+    <col min="7946" max="7949" width="9" style="14"/>
+    <col min="7950" max="7950" width="10.4140625" style="14" customWidth="1"/>
+    <col min="7951" max="8192" width="9" style="14"/>
+    <col min="8193" max="8193" width="2.1640625" style="14" customWidth="1"/>
+    <col min="8194" max="8194" width="5.6640625" style="14" customWidth="1"/>
+    <col min="8195" max="8195" width="7.83203125" style="14" customWidth="1"/>
+    <col min="8196" max="8197" width="12.33203125" style="14" customWidth="1"/>
+    <col min="8198" max="8198" width="14.33203125" style="14" customWidth="1"/>
+    <col min="8199" max="8199" width="5.4140625" style="14" customWidth="1"/>
+    <col min="8200" max="8200" width="21.6640625" style="14" customWidth="1"/>
+    <col min="8201" max="8201" width="6.9140625" style="14" customWidth="1"/>
+    <col min="8202" max="8205" width="9" style="14"/>
+    <col min="8206" max="8206" width="10.4140625" style="14" customWidth="1"/>
+    <col min="8207" max="8448" width="9" style="14"/>
+    <col min="8449" max="8449" width="2.1640625" style="14" customWidth="1"/>
+    <col min="8450" max="8450" width="5.6640625" style="14" customWidth="1"/>
+    <col min="8451" max="8451" width="7.83203125" style="14" customWidth="1"/>
+    <col min="8452" max="8453" width="12.33203125" style="14" customWidth="1"/>
+    <col min="8454" max="8454" width="14.33203125" style="14" customWidth="1"/>
+    <col min="8455" max="8455" width="5.4140625" style="14" customWidth="1"/>
+    <col min="8456" max="8456" width="21.6640625" style="14" customWidth="1"/>
+    <col min="8457" max="8457" width="6.9140625" style="14" customWidth="1"/>
+    <col min="8458" max="8461" width="9" style="14"/>
+    <col min="8462" max="8462" width="10.4140625" style="14" customWidth="1"/>
+    <col min="8463" max="8704" width="9" style="14"/>
+    <col min="8705" max="8705" width="2.1640625" style="14" customWidth="1"/>
+    <col min="8706" max="8706" width="5.6640625" style="14" customWidth="1"/>
+    <col min="8707" max="8707" width="7.83203125" style="14" customWidth="1"/>
+    <col min="8708" max="8709" width="12.33203125" style="14" customWidth="1"/>
+    <col min="8710" max="8710" width="14.33203125" style="14" customWidth="1"/>
+    <col min="8711" max="8711" width="5.4140625" style="14" customWidth="1"/>
+    <col min="8712" max="8712" width="21.6640625" style="14" customWidth="1"/>
+    <col min="8713" max="8713" width="6.9140625" style="14" customWidth="1"/>
+    <col min="8714" max="8717" width="9" style="14"/>
+    <col min="8718" max="8718" width="10.4140625" style="14" customWidth="1"/>
+    <col min="8719" max="8960" width="9" style="14"/>
+    <col min="8961" max="8961" width="2.1640625" style="14" customWidth="1"/>
+    <col min="8962" max="8962" width="5.6640625" style="14" customWidth="1"/>
+    <col min="8963" max="8963" width="7.83203125" style="14" customWidth="1"/>
+    <col min="8964" max="8965" width="12.33203125" style="14" customWidth="1"/>
+    <col min="8966" max="8966" width="14.33203125" style="14" customWidth="1"/>
+    <col min="8967" max="8967" width="5.4140625" style="14" customWidth="1"/>
+    <col min="8968" max="8968" width="21.6640625" style="14" customWidth="1"/>
+    <col min="8969" max="8969" width="6.9140625" style="14" customWidth="1"/>
+    <col min="8970" max="8973" width="9" style="14"/>
+    <col min="8974" max="8974" width="10.4140625" style="14" customWidth="1"/>
+    <col min="8975" max="9216" width="9" style="14"/>
+    <col min="9217" max="9217" width="2.1640625" style="14" customWidth="1"/>
+    <col min="9218" max="9218" width="5.6640625" style="14" customWidth="1"/>
+    <col min="9219" max="9219" width="7.83203125" style="14" customWidth="1"/>
+    <col min="9220" max="9221" width="12.33203125" style="14" customWidth="1"/>
+    <col min="9222" max="9222" width="14.33203125" style="14" customWidth="1"/>
+    <col min="9223" max="9223" width="5.4140625" style="14" customWidth="1"/>
+    <col min="9224" max="9224" width="21.6640625" style="14" customWidth="1"/>
+    <col min="9225" max="9225" width="6.9140625" style="14" customWidth="1"/>
+    <col min="9226" max="9229" width="9" style="14"/>
+    <col min="9230" max="9230" width="10.4140625" style="14" customWidth="1"/>
+    <col min="9231" max="9472" width="9" style="14"/>
+    <col min="9473" max="9473" width="2.1640625" style="14" customWidth="1"/>
+    <col min="9474" max="9474" width="5.6640625" style="14" customWidth="1"/>
+    <col min="9475" max="9475" width="7.83203125" style="14" customWidth="1"/>
+    <col min="9476" max="9477" width="12.33203125" style="14" customWidth="1"/>
+    <col min="9478" max="9478" width="14.33203125" style="14" customWidth="1"/>
+    <col min="9479" max="9479" width="5.4140625" style="14" customWidth="1"/>
+    <col min="9480" max="9480" width="21.6640625" style="14" customWidth="1"/>
+    <col min="9481" max="9481" width="6.9140625" style="14" customWidth="1"/>
+    <col min="9482" max="9485" width="9" style="14"/>
+    <col min="9486" max="9486" width="10.4140625" style="14" customWidth="1"/>
+    <col min="9487" max="9728" width="9" style="14"/>
+    <col min="9729" max="9729" width="2.1640625" style="14" customWidth="1"/>
+    <col min="9730" max="9730" width="5.6640625" style="14" customWidth="1"/>
+    <col min="9731" max="9731" width="7.83203125" style="14" customWidth="1"/>
+    <col min="9732" max="9733" width="12.33203125" style="14" customWidth="1"/>
+    <col min="9734" max="9734" width="14.33203125" style="14" customWidth="1"/>
+    <col min="9735" max="9735" width="5.4140625" style="14" customWidth="1"/>
+    <col min="9736" max="9736" width="21.6640625" style="14" customWidth="1"/>
+    <col min="9737" max="9737" width="6.9140625" style="14" customWidth="1"/>
+    <col min="9738" max="9741" width="9" style="14"/>
+    <col min="9742" max="9742" width="10.4140625" style="14" customWidth="1"/>
+    <col min="9743" max="9984" width="9" style="14"/>
+    <col min="9985" max="9985" width="2.1640625" style="14" customWidth="1"/>
+    <col min="9986" max="9986" width="5.6640625" style="14" customWidth="1"/>
+    <col min="9987" max="9987" width="7.83203125" style="14" customWidth="1"/>
+    <col min="9988" max="9989" width="12.33203125" style="14" customWidth="1"/>
+    <col min="9990" max="9990" width="14.33203125" style="14" customWidth="1"/>
+    <col min="9991" max="9991" width="5.4140625" style="14" customWidth="1"/>
+    <col min="9992" max="9992" width="21.6640625" style="14" customWidth="1"/>
+    <col min="9993" max="9993" width="6.9140625" style="14" customWidth="1"/>
+    <col min="9994" max="9997" width="9" style="14"/>
+    <col min="9998" max="9998" width="10.4140625" style="14" customWidth="1"/>
+    <col min="9999" max="10240" width="9" style="14"/>
+    <col min="10241" max="10241" width="2.1640625" style="14" customWidth="1"/>
+    <col min="10242" max="10242" width="5.6640625" style="14" customWidth="1"/>
+    <col min="10243" max="10243" width="7.83203125" style="14" customWidth="1"/>
+    <col min="10244" max="10245" width="12.33203125" style="14" customWidth="1"/>
+    <col min="10246" max="10246" width="14.33203125" style="14" customWidth="1"/>
+    <col min="10247" max="10247" width="5.4140625" style="14" customWidth="1"/>
+    <col min="10248" max="10248" width="21.6640625" style="14" customWidth="1"/>
+    <col min="10249" max="10249" width="6.9140625" style="14" customWidth="1"/>
+    <col min="10250" max="10253" width="9" style="14"/>
+    <col min="10254" max="10254" width="10.4140625" style="14" customWidth="1"/>
+    <col min="10255" max="10496" width="9" style="14"/>
+    <col min="10497" max="10497" width="2.1640625" style="14" customWidth="1"/>
+    <col min="10498" max="10498" width="5.6640625" style="14" customWidth="1"/>
+    <col min="10499" max="10499" width="7.83203125" style="14" customWidth="1"/>
+    <col min="10500" max="10501" width="12.33203125" style="14" customWidth="1"/>
+    <col min="10502" max="10502" width="14.33203125" style="14" customWidth="1"/>
+    <col min="10503" max="10503" width="5.4140625" style="14" customWidth="1"/>
+    <col min="10504" max="10504" width="21.6640625" style="14" customWidth="1"/>
+    <col min="10505" max="10505" width="6.9140625" style="14" customWidth="1"/>
+    <col min="10506" max="10509" width="9" style="14"/>
+    <col min="10510" max="10510" width="10.4140625" style="14" customWidth="1"/>
+    <col min="10511" max="10752" width="9" style="14"/>
+    <col min="10753" max="10753" width="2.1640625" style="14" customWidth="1"/>
+    <col min="10754" max="10754" width="5.6640625" style="14" customWidth="1"/>
+    <col min="10755" max="10755" width="7.83203125" style="14" customWidth="1"/>
+    <col min="10756" max="10757" width="12.33203125" style="14" customWidth="1"/>
+    <col min="10758" max="10758" width="14.33203125" style="14" customWidth="1"/>
+    <col min="10759" max="10759" width="5.4140625" style="14" customWidth="1"/>
+    <col min="10760" max="10760" width="21.6640625" style="14" customWidth="1"/>
+    <col min="10761" max="10761" width="6.9140625" style="14" customWidth="1"/>
+    <col min="10762" max="10765" width="9" style="14"/>
+    <col min="10766" max="10766" width="10.4140625" style="14" customWidth="1"/>
+    <col min="10767" max="11008" width="9" style="14"/>
+    <col min="11009" max="11009" width="2.1640625" style="14" customWidth="1"/>
+    <col min="11010" max="11010" width="5.6640625" style="14" customWidth="1"/>
+    <col min="11011" max="11011" width="7.83203125" style="14" customWidth="1"/>
+    <col min="11012" max="11013" width="12.33203125" style="14" customWidth="1"/>
+    <col min="11014" max="11014" width="14.33203125" style="14" customWidth="1"/>
+    <col min="11015" max="11015" width="5.4140625" style="14" customWidth="1"/>
+    <col min="11016" max="11016" width="21.6640625" style="14" customWidth="1"/>
+    <col min="11017" max="11017" width="6.9140625" style="14" customWidth="1"/>
+    <col min="11018" max="11021" width="9" style="14"/>
+    <col min="11022" max="11022" width="10.4140625" style="14" customWidth="1"/>
+    <col min="11023" max="11264" width="9" style="14"/>
+    <col min="11265" max="11265" width="2.1640625" style="14" customWidth="1"/>
+    <col min="11266" max="11266" width="5.6640625" style="14" customWidth="1"/>
+    <col min="11267" max="11267" width="7.83203125" style="14" customWidth="1"/>
+    <col min="11268" max="11269" width="12.33203125" style="14" customWidth="1"/>
+    <col min="11270" max="11270" width="14.33203125" style="14" customWidth="1"/>
+    <col min="11271" max="11271" width="5.4140625" style="14" customWidth="1"/>
+    <col min="11272" max="11272" width="21.6640625" style="14" customWidth="1"/>
+    <col min="11273" max="11273" width="6.9140625" style="14" customWidth="1"/>
+    <col min="11274" max="11277" width="9" style="14"/>
+    <col min="11278" max="11278" width="10.4140625" style="14" customWidth="1"/>
+    <col min="11279" max="11520" width="9" style="14"/>
+    <col min="11521" max="11521" width="2.1640625" style="14" customWidth="1"/>
+    <col min="11522" max="11522" width="5.6640625" style="14" customWidth="1"/>
+    <col min="11523" max="11523" width="7.83203125" style="14" customWidth="1"/>
+    <col min="11524" max="11525" width="12.33203125" style="14" customWidth="1"/>
+    <col min="11526" max="11526" width="14.33203125" style="14" customWidth="1"/>
+    <col min="11527" max="11527" width="5.4140625" style="14" customWidth="1"/>
+    <col min="11528" max="11528" width="21.6640625" style="14" customWidth="1"/>
+    <col min="11529" max="11529" width="6.9140625" style="14" customWidth="1"/>
+    <col min="11530" max="11533" width="9" style="14"/>
+    <col min="11534" max="11534" width="10.4140625" style="14" customWidth="1"/>
+    <col min="11535" max="11776" width="9" style="14"/>
+    <col min="11777" max="11777" width="2.1640625" style="14" customWidth="1"/>
+    <col min="11778" max="11778" width="5.6640625" style="14" customWidth="1"/>
+    <col min="11779" max="11779" width="7.83203125" style="14" customWidth="1"/>
+    <col min="11780" max="11781" width="12.33203125" style="14" customWidth="1"/>
+    <col min="11782" max="11782" width="14.33203125" style="14" customWidth="1"/>
+    <col min="11783" max="11783" width="5.4140625" style="14" customWidth="1"/>
+    <col min="11784" max="11784" width="21.6640625" style="14" customWidth="1"/>
+    <col min="11785" max="11785" width="6.9140625" style="14" customWidth="1"/>
+    <col min="11786" max="11789" width="9" style="14"/>
+    <col min="11790" max="11790" width="10.4140625" style="14" customWidth="1"/>
+    <col min="11791" max="12032" width="9" style="14"/>
+    <col min="12033" max="12033" width="2.1640625" style="14" customWidth="1"/>
+    <col min="12034" max="12034" width="5.6640625" style="14" customWidth="1"/>
+    <col min="12035" max="12035" width="7.83203125" style="14" customWidth="1"/>
+    <col min="12036" max="12037" width="12.33203125" style="14" customWidth="1"/>
+    <col min="12038" max="12038" width="14.33203125" style="14" customWidth="1"/>
+    <col min="12039" max="12039" width="5.4140625" style="14" customWidth="1"/>
+    <col min="12040" max="12040" width="21.6640625" style="14" customWidth="1"/>
+    <col min="12041" max="12041" width="6.9140625" style="14" customWidth="1"/>
+    <col min="12042" max="12045" width="9" style="14"/>
+    <col min="12046" max="12046" width="10.4140625" style="14" customWidth="1"/>
+    <col min="12047" max="12288" width="9" style="14"/>
+    <col min="12289" max="12289" width="2.1640625" style="14" customWidth="1"/>
+    <col min="12290" max="12290" width="5.6640625" style="14" customWidth="1"/>
+    <col min="12291" max="12291" width="7.83203125" style="14" customWidth="1"/>
+    <col min="12292" max="12293" width="12.33203125" style="14" customWidth="1"/>
+    <col min="12294" max="12294" width="14.33203125" style="14" customWidth="1"/>
+    <col min="12295" max="12295" width="5.4140625" style="14" customWidth="1"/>
+    <col min="12296" max="12296" width="21.6640625" style="14" customWidth="1"/>
+    <col min="12297" max="12297" width="6.9140625" style="14" customWidth="1"/>
+    <col min="12298" max="12301" width="9" style="14"/>
+    <col min="12302" max="12302" width="10.4140625" style="14" customWidth="1"/>
+    <col min="12303" max="12544" width="9" style="14"/>
+    <col min="12545" max="12545" width="2.1640625" style="14" customWidth="1"/>
+    <col min="12546" max="12546" width="5.6640625" style="14" customWidth="1"/>
+    <col min="12547" max="12547" width="7.83203125" style="14" customWidth="1"/>
+    <col min="12548" max="12549" width="12.33203125" style="14" customWidth="1"/>
+    <col min="12550" max="12550" width="14.33203125" style="14" customWidth="1"/>
+    <col min="12551" max="12551" width="5.4140625" style="14" customWidth="1"/>
+    <col min="12552" max="12552" width="21.6640625" style="14" customWidth="1"/>
+    <col min="12553" max="12553" width="6.9140625" style="14" customWidth="1"/>
+    <col min="12554" max="12557" width="9" style="14"/>
+    <col min="12558" max="12558" width="10.4140625" style="14" customWidth="1"/>
+    <col min="12559" max="12800" width="9" style="14"/>
+    <col min="12801" max="12801" width="2.1640625" style="14" customWidth="1"/>
+    <col min="12802" max="12802" width="5.6640625" style="14" customWidth="1"/>
+    <col min="12803" max="12803" width="7.83203125" style="14" customWidth="1"/>
+    <col min="12804" max="12805" width="12.33203125" style="14" customWidth="1"/>
+    <col min="12806" max="12806" width="14.33203125" style="14" customWidth="1"/>
+    <col min="12807" max="12807" width="5.4140625" style="14" customWidth="1"/>
+    <col min="12808" max="12808" width="21.6640625" style="14" customWidth="1"/>
+    <col min="12809" max="12809" width="6.9140625" style="14" customWidth="1"/>
+    <col min="12810" max="12813" width="9" style="14"/>
+    <col min="12814" max="12814" width="10.4140625" style="14" customWidth="1"/>
+    <col min="12815" max="13056" width="9" style="14"/>
+    <col min="13057" max="13057" width="2.1640625" style="14" customWidth="1"/>
+    <col min="13058" max="13058" width="5.6640625" style="14" customWidth="1"/>
+    <col min="13059" max="13059" width="7.83203125" style="14" customWidth="1"/>
+    <col min="13060" max="13061" width="12.33203125" style="14" customWidth="1"/>
+    <col min="13062" max="13062" width="14.33203125" style="14" customWidth="1"/>
+    <col min="13063" max="13063" width="5.4140625" style="14" customWidth="1"/>
+    <col min="13064" max="13064" width="21.6640625" style="14" customWidth="1"/>
+    <col min="13065" max="13065" width="6.9140625" style="14" customWidth="1"/>
+    <col min="13066" max="13069" width="9" style="14"/>
+    <col min="13070" max="13070" width="10.4140625" style="14" customWidth="1"/>
+    <col min="13071" max="13312" width="9" style="14"/>
+    <col min="13313" max="13313" width="2.1640625" style="14" customWidth="1"/>
+    <col min="13314" max="13314" width="5.6640625" style="14" customWidth="1"/>
+    <col min="13315" max="13315" width="7.83203125" style="14" customWidth="1"/>
+    <col min="13316" max="13317" width="12.33203125" style="14" customWidth="1"/>
+    <col min="13318" max="13318" width="14.33203125" style="14" customWidth="1"/>
+    <col min="13319" max="13319" width="5.4140625" style="14" customWidth="1"/>
+    <col min="13320" max="13320" width="21.6640625" style="14" customWidth="1"/>
+    <col min="13321" max="13321" width="6.9140625" style="14" customWidth="1"/>
+    <col min="13322" max="13325" width="9" style="14"/>
+    <col min="13326" max="13326" width="10.4140625" style="14" customWidth="1"/>
+    <col min="13327" max="13568" width="9" style="14"/>
+    <col min="13569" max="13569" width="2.1640625" style="14" customWidth="1"/>
+    <col min="13570" max="13570" width="5.6640625" style="14" customWidth="1"/>
+    <col min="13571" max="13571" width="7.83203125" style="14" customWidth="1"/>
+    <col min="13572" max="13573" width="12.33203125" style="14" customWidth="1"/>
+    <col min="13574" max="13574" width="14.33203125" style="14" customWidth="1"/>
+    <col min="13575" max="13575" width="5.4140625" style="14" customWidth="1"/>
+    <col min="13576" max="13576" width="21.6640625" style="14" customWidth="1"/>
+    <col min="13577" max="13577" width="6.9140625" style="14" customWidth="1"/>
+    <col min="13578" max="13581" width="9" style="14"/>
+    <col min="13582" max="13582" width="10.4140625" style="14" customWidth="1"/>
+    <col min="13583" max="13824" width="9" style="14"/>
+    <col min="13825" max="13825" width="2.1640625" style="14" customWidth="1"/>
+    <col min="13826" max="13826" width="5.6640625" style="14" customWidth="1"/>
+    <col min="13827" max="13827" width="7.83203125" style="14" customWidth="1"/>
+    <col min="13828" max="13829" width="12.33203125" style="14" customWidth="1"/>
+    <col min="13830" max="13830" width="14.33203125" style="14" customWidth="1"/>
+    <col min="13831" max="13831" width="5.4140625" style="14" customWidth="1"/>
+    <col min="13832" max="13832" width="21.6640625" style="14" customWidth="1"/>
+    <col min="13833" max="13833" width="6.9140625" style="14" customWidth="1"/>
+    <col min="13834" max="13837" width="9" style="14"/>
+    <col min="13838" max="13838" width="10.4140625" style="14" customWidth="1"/>
+    <col min="13839" max="14080" width="9" style="14"/>
+    <col min="14081" max="14081" width="2.1640625" style="14" customWidth="1"/>
+    <col min="14082" max="14082" width="5.6640625" style="14" customWidth="1"/>
+    <col min="14083" max="14083" width="7.83203125" style="14" customWidth="1"/>
+    <col min="14084" max="14085" width="12.33203125" style="14" customWidth="1"/>
+    <col min="14086" max="14086" width="14.33203125" style="14" customWidth="1"/>
+    <col min="14087" max="14087" width="5.4140625" style="14" customWidth="1"/>
+    <col min="14088" max="14088" width="21.6640625" style="14" customWidth="1"/>
+    <col min="14089" max="14089" width="6.9140625" style="14" customWidth="1"/>
+    <col min="14090" max="14093" width="9" style="14"/>
+    <col min="14094" max="14094" width="10.4140625" style="14" customWidth="1"/>
+    <col min="14095" max="14336" width="9" style="14"/>
+    <col min="14337" max="14337" width="2.1640625" style="14" customWidth="1"/>
+    <col min="14338" max="14338" width="5.6640625" style="14" customWidth="1"/>
+    <col min="14339" max="14339" width="7.83203125" style="14" customWidth="1"/>
+    <col min="14340" max="14341" width="12.33203125" style="14" customWidth="1"/>
+    <col min="14342" max="14342" width="14.33203125" style="14" customWidth="1"/>
+    <col min="14343" max="14343" width="5.4140625" style="14" customWidth="1"/>
+    <col min="14344" max="14344" width="21.6640625" style="14" customWidth="1"/>
+    <col min="14345" max="14345" width="6.9140625" style="14" customWidth="1"/>
+    <col min="14346" max="14349" width="9" style="14"/>
+    <col min="14350" max="14350" width="10.4140625" style="14" customWidth="1"/>
+    <col min="14351" max="14592" width="9" style="14"/>
+    <col min="14593" max="14593" width="2.1640625" style="14" customWidth="1"/>
+    <col min="14594" max="14594" width="5.6640625" style="14" customWidth="1"/>
+    <col min="14595" max="14595" width="7.83203125" style="14" customWidth="1"/>
+    <col min="14596" max="14597" width="12.33203125" style="14" customWidth="1"/>
+    <col min="14598" max="14598" width="14.33203125" style="14" customWidth="1"/>
+    <col min="14599" max="14599" width="5.4140625" style="14" customWidth="1"/>
+    <col min="14600" max="14600" width="21.6640625" style="14" customWidth="1"/>
+    <col min="14601" max="14601" width="6.9140625" style="14" customWidth="1"/>
+    <col min="14602" max="14605" width="9" style="14"/>
+    <col min="14606" max="14606" width="10.4140625" style="14" customWidth="1"/>
+    <col min="14607" max="14848" width="9" style="14"/>
+    <col min="14849" max="14849" width="2.1640625" style="14" customWidth="1"/>
+    <col min="14850" max="14850" width="5.6640625" style="14" customWidth="1"/>
+    <col min="14851" max="14851" width="7.83203125" style="14" customWidth="1"/>
+    <col min="14852" max="14853" width="12.33203125" style="14" customWidth="1"/>
+    <col min="14854" max="14854" width="14.33203125" style="14" customWidth="1"/>
+    <col min="14855" max="14855" width="5.4140625" style="14" customWidth="1"/>
+    <col min="14856" max="14856" width="21.6640625" style="14" customWidth="1"/>
+    <col min="14857" max="14857" width="6.9140625" style="14" customWidth="1"/>
+    <col min="14858" max="14861" width="9" style="14"/>
+    <col min="14862" max="14862" width="10.4140625" style="14" customWidth="1"/>
+    <col min="14863" max="15104" width="9" style="14"/>
+    <col min="15105" max="15105" width="2.1640625" style="14" customWidth="1"/>
+    <col min="15106" max="15106" width="5.6640625" style="14" customWidth="1"/>
+    <col min="15107" max="15107" width="7.83203125" style="14" customWidth="1"/>
+    <col min="15108" max="15109" width="12.33203125" style="14" customWidth="1"/>
+    <col min="15110" max="15110" width="14.33203125" style="14" customWidth="1"/>
+    <col min="15111" max="15111" width="5.4140625" style="14" customWidth="1"/>
+    <col min="15112" max="15112" width="21.6640625" style="14" customWidth="1"/>
+    <col min="15113" max="15113" width="6.9140625" style="14" customWidth="1"/>
+    <col min="15114" max="15117" width="9" style="14"/>
+    <col min="15118" max="15118" width="10.4140625" style="14" customWidth="1"/>
+    <col min="15119" max="15360" width="9" style="14"/>
+    <col min="15361" max="15361" width="2.1640625" style="14" customWidth="1"/>
+    <col min="15362" max="15362" width="5.6640625" style="14" customWidth="1"/>
+    <col min="15363" max="15363" width="7.83203125" style="14" customWidth="1"/>
+    <col min="15364" max="15365" width="12.33203125" style="14" customWidth="1"/>
+    <col min="15366" max="15366" width="14.33203125" style="14" customWidth="1"/>
+    <col min="15367" max="15367" width="5.4140625" style="14" customWidth="1"/>
+    <col min="15368" max="15368" width="21.6640625" style="14" customWidth="1"/>
+    <col min="15369" max="15369" width="6.9140625" style="14" customWidth="1"/>
+    <col min="15370" max="15373" width="9" style="14"/>
+    <col min="15374" max="15374" width="10.4140625" style="14" customWidth="1"/>
+    <col min="15375" max="15616" width="9" style="14"/>
+    <col min="15617" max="15617" width="2.1640625" style="14" customWidth="1"/>
+    <col min="15618" max="15618" width="5.6640625" style="14" customWidth="1"/>
+    <col min="15619" max="15619" width="7.83203125" style="14" customWidth="1"/>
+    <col min="15620" max="15621" width="12.33203125" style="14" customWidth="1"/>
+    <col min="15622" max="15622" width="14.33203125" style="14" customWidth="1"/>
+    <col min="15623" max="15623" width="5.4140625" style="14" customWidth="1"/>
+    <col min="15624" max="15624" width="21.6640625" style="14" customWidth="1"/>
+    <col min="15625" max="15625" width="6.9140625" style="14" customWidth="1"/>
+    <col min="15626" max="15629" width="9" style="14"/>
+    <col min="15630" max="15630" width="10.4140625" style="14" customWidth="1"/>
+    <col min="15631" max="15872" width="9" style="14"/>
+    <col min="15873" max="15873" width="2.1640625" style="14" customWidth="1"/>
+    <col min="15874" max="15874" width="5.6640625" style="14" customWidth="1"/>
+    <col min="15875" max="15875" width="7.83203125" style="14" customWidth="1"/>
+    <col min="15876" max="15877" width="12.33203125" style="14" customWidth="1"/>
+    <col min="15878" max="15878" width="14.33203125" style="14" customWidth="1"/>
+    <col min="15879" max="15879" width="5.4140625" style="14" customWidth="1"/>
+    <col min="15880" max="15880" width="21.6640625" style="14" customWidth="1"/>
+    <col min="15881" max="15881" width="6.9140625" style="14" customWidth="1"/>
+    <col min="15882" max="15885" width="9" style="14"/>
+    <col min="15886" max="15886" width="10.4140625" style="14" customWidth="1"/>
+    <col min="15887" max="16128" width="9" style="14"/>
+    <col min="16129" max="16129" width="2.1640625" style="14" customWidth="1"/>
+    <col min="16130" max="16130" width="5.6640625" style="14" customWidth="1"/>
+    <col min="16131" max="16131" width="7.83203125" style="14" customWidth="1"/>
+    <col min="16132" max="16133" width="12.33203125" style="14" customWidth="1"/>
+    <col min="16134" max="16134" width="14.33203125" style="14" customWidth="1"/>
+    <col min="16135" max="16135" width="5.4140625" style="14" customWidth="1"/>
+    <col min="16136" max="16136" width="21.6640625" style="14" customWidth="1"/>
+    <col min="16137" max="16137" width="6.9140625" style="14" customWidth="1"/>
+    <col min="16138" max="16141" width="9" style="14"/>
+    <col min="16142" max="16142" width="10.4140625" style="14" customWidth="1"/>
+    <col min="16143" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="53.25" customHeight="1">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="20">
-        <v>44011</v>
+      <c r="D4" s="18">
+        <v>44025</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="16"/>
     </row>
-    <row r="5" spans="2:9" ht="25">
-      <c r="B5" s="19">
+    <row r="5" spans="2:9" ht="29">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20">
-        <v>44011</v>
+      <c r="D5" s="18">
+        <v>44025</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>14</v>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="2:9" ht="29">
+      <c r="B6" s="17">
+        <v>3</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="2:9" ht="29">
-      <c r="B6" s="19">
-        <v>3</v>
+      <c r="D6" s="18">
+        <v>44026</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="E6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="20">
-        <v>44012</v>
+      <c r="H6" s="20" t="s">
+        <v>19</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="2:9" ht="29">
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="18">
+        <v>44027</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>19</v>
+      <c r="F7" s="50" t="s">
+        <v>51</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>20</v>
+      <c r="G7" s="17" t="s">
+        <v>18</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H7" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="2:9" ht="29">
-      <c r="B7" s="19">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="20">
-        <v>44013</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" customHeight="1">
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>25</v>
+      <c r="C8" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="D8" s="20">
-        <v>44014</v>
+      <c r="D8" s="18">
+        <v>44028</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>26</v>
+      <c r="F8" s="50" t="s">
+        <v>51</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>20</v>
+      <c r="G8" s="17" t="s">
+        <v>18</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>27</v>
+      <c r="H8" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="30" customHeight="1">
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>28</v>
+      <c r="C9" s="17" t="s">
+        <v>24</v>
       </c>
-      <c r="D9" s="20">
-        <v>44015</v>
+      <c r="D9" s="18">
+        <v>44029</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>29</v>
+      <c r="F9" s="50" t="s">
+        <v>51</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>20</v>
+      <c r="G9" s="17" t="s">
+        <v>18</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>30</v>
+      <c r="H9" s="20" t="s">
+        <v>52</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" ht="30" customHeight="1">
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <v>7</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:9" ht="30" customHeight="1">
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <v>8</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:9" ht="30" customHeight="1">
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <v>9</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1">
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>10</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="2:9" ht="30" customHeight="1">
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>11</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="2:9" ht="30" customHeight="1">
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>12</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:9" ht="30" customHeight="1"/>
     <row r="17" ht="30" customHeight="1"/>
@@ -15621,944 +15652,1035 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25129B46-C903-4CE5-A1C5-8EC917928F89}">
   <dimension ref="B1:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:D27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.9140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.1640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.58203125" style="26" customWidth="1"/>
-    <col min="7" max="9" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="256" width="9" style="26"/>
-    <col min="257" max="257" width="1.6640625" style="26" customWidth="1"/>
-    <col min="258" max="258" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="259" max="260" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="11.58203125" style="26" customWidth="1"/>
-    <col min="263" max="265" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="266" max="512" width="9" style="26"/>
-    <col min="513" max="513" width="1.6640625" style="26" customWidth="1"/>
-    <col min="514" max="514" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="515" max="516" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="11.58203125" style="26" customWidth="1"/>
-    <col min="519" max="521" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="522" max="768" width="9" style="26"/>
-    <col min="769" max="769" width="1.6640625" style="26" customWidth="1"/>
-    <col min="770" max="770" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="771" max="772" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11.58203125" style="26" customWidth="1"/>
-    <col min="775" max="777" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="778" max="1024" width="9" style="26"/>
-    <col min="1025" max="1025" width="1.6640625" style="26" customWidth="1"/>
-    <col min="1026" max="1026" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1028" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="11.58203125" style="26" customWidth="1"/>
-    <col min="1031" max="1033" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1280" width="9" style="26"/>
-    <col min="1281" max="1281" width="1.6640625" style="26" customWidth="1"/>
-    <col min="1282" max="1282" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1284" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="11.58203125" style="26" customWidth="1"/>
-    <col min="1287" max="1289" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1536" width="9" style="26"/>
-    <col min="1537" max="1537" width="1.6640625" style="26" customWidth="1"/>
-    <col min="1538" max="1538" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1540" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="11.58203125" style="26" customWidth="1"/>
-    <col min="1543" max="1545" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1792" width="9" style="26"/>
-    <col min="1793" max="1793" width="1.6640625" style="26" customWidth="1"/>
-    <col min="1794" max="1794" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1796" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="11.58203125" style="26" customWidth="1"/>
-    <col min="1799" max="1801" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2048" width="9" style="26"/>
-    <col min="2049" max="2049" width="1.6640625" style="26" customWidth="1"/>
-    <col min="2050" max="2050" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2052" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="11.58203125" style="26" customWidth="1"/>
-    <col min="2055" max="2057" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2304" width="9" style="26"/>
-    <col min="2305" max="2305" width="1.6640625" style="26" customWidth="1"/>
-    <col min="2306" max="2306" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2308" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="11.58203125" style="26" customWidth="1"/>
-    <col min="2311" max="2313" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2560" width="9" style="26"/>
-    <col min="2561" max="2561" width="1.6640625" style="26" customWidth="1"/>
-    <col min="2562" max="2562" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2564" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="11.58203125" style="26" customWidth="1"/>
-    <col min="2567" max="2569" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2816" width="9" style="26"/>
-    <col min="2817" max="2817" width="1.6640625" style="26" customWidth="1"/>
-    <col min="2818" max="2818" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2820" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="11.58203125" style="26" customWidth="1"/>
-    <col min="2823" max="2825" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3072" width="9" style="26"/>
-    <col min="3073" max="3073" width="1.6640625" style="26" customWidth="1"/>
-    <col min="3074" max="3074" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3076" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="11.58203125" style="26" customWidth="1"/>
-    <col min="3079" max="3081" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3328" width="9" style="26"/>
-    <col min="3329" max="3329" width="1.6640625" style="26" customWidth="1"/>
-    <col min="3330" max="3330" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3332" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="11.58203125" style="26" customWidth="1"/>
-    <col min="3335" max="3337" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3584" width="9" style="26"/>
-    <col min="3585" max="3585" width="1.6640625" style="26" customWidth="1"/>
-    <col min="3586" max="3586" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3588" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="11.58203125" style="26" customWidth="1"/>
-    <col min="3591" max="3593" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3840" width="9" style="26"/>
-    <col min="3841" max="3841" width="1.6640625" style="26" customWidth="1"/>
-    <col min="3842" max="3842" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3844" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="11.58203125" style="26" customWidth="1"/>
-    <col min="3847" max="3849" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4096" width="9" style="26"/>
-    <col min="4097" max="4097" width="1.6640625" style="26" customWidth="1"/>
-    <col min="4098" max="4098" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4100" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="11.58203125" style="26" customWidth="1"/>
-    <col min="4103" max="4105" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4352" width="9" style="26"/>
-    <col min="4353" max="4353" width="1.6640625" style="26" customWidth="1"/>
-    <col min="4354" max="4354" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4356" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="11.58203125" style="26" customWidth="1"/>
-    <col min="4359" max="4361" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4608" width="9" style="26"/>
-    <col min="4609" max="4609" width="1.6640625" style="26" customWidth="1"/>
-    <col min="4610" max="4610" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4612" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="11.58203125" style="26" customWidth="1"/>
-    <col min="4615" max="4617" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4864" width="9" style="26"/>
-    <col min="4865" max="4865" width="1.6640625" style="26" customWidth="1"/>
-    <col min="4866" max="4866" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4868" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="11.58203125" style="26" customWidth="1"/>
-    <col min="4871" max="4873" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5120" width="9" style="26"/>
-    <col min="5121" max="5121" width="1.6640625" style="26" customWidth="1"/>
-    <col min="5122" max="5122" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5124" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="11.58203125" style="26" customWidth="1"/>
-    <col min="5127" max="5129" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5376" width="9" style="26"/>
-    <col min="5377" max="5377" width="1.6640625" style="26" customWidth="1"/>
-    <col min="5378" max="5378" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5380" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="11.58203125" style="26" customWidth="1"/>
-    <col min="5383" max="5385" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5632" width="9" style="26"/>
-    <col min="5633" max="5633" width="1.6640625" style="26" customWidth="1"/>
-    <col min="5634" max="5634" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5636" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="11.58203125" style="26" customWidth="1"/>
-    <col min="5639" max="5641" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5888" width="9" style="26"/>
-    <col min="5889" max="5889" width="1.6640625" style="26" customWidth="1"/>
-    <col min="5890" max="5890" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5892" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="11.58203125" style="26" customWidth="1"/>
-    <col min="5895" max="5897" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6144" width="9" style="26"/>
-    <col min="6145" max="6145" width="1.6640625" style="26" customWidth="1"/>
-    <col min="6146" max="6146" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6148" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="11.58203125" style="26" customWidth="1"/>
-    <col min="6151" max="6153" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6400" width="9" style="26"/>
-    <col min="6401" max="6401" width="1.6640625" style="26" customWidth="1"/>
-    <col min="6402" max="6402" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6404" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="11.58203125" style="26" customWidth="1"/>
-    <col min="6407" max="6409" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6656" width="9" style="26"/>
-    <col min="6657" max="6657" width="1.6640625" style="26" customWidth="1"/>
-    <col min="6658" max="6658" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6660" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="11.58203125" style="26" customWidth="1"/>
-    <col min="6663" max="6665" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6912" width="9" style="26"/>
-    <col min="6913" max="6913" width="1.6640625" style="26" customWidth="1"/>
-    <col min="6914" max="6914" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6916" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="11.58203125" style="26" customWidth="1"/>
-    <col min="6919" max="6921" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7168" width="9" style="26"/>
-    <col min="7169" max="7169" width="1.6640625" style="26" customWidth="1"/>
-    <col min="7170" max="7170" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7172" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="11.58203125" style="26" customWidth="1"/>
-    <col min="7175" max="7177" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7424" width="9" style="26"/>
-    <col min="7425" max="7425" width="1.6640625" style="26" customWidth="1"/>
-    <col min="7426" max="7426" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7428" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="11.58203125" style="26" customWidth="1"/>
-    <col min="7431" max="7433" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7680" width="9" style="26"/>
-    <col min="7681" max="7681" width="1.6640625" style="26" customWidth="1"/>
-    <col min="7682" max="7682" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7684" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="11.58203125" style="26" customWidth="1"/>
-    <col min="7687" max="7689" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7936" width="9" style="26"/>
-    <col min="7937" max="7937" width="1.6640625" style="26" customWidth="1"/>
-    <col min="7938" max="7938" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7940" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="11.58203125" style="26" customWidth="1"/>
-    <col min="7943" max="7945" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8192" width="9" style="26"/>
-    <col min="8193" max="8193" width="1.6640625" style="26" customWidth="1"/>
-    <col min="8194" max="8194" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8196" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="11.58203125" style="26" customWidth="1"/>
-    <col min="8199" max="8201" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8448" width="9" style="26"/>
-    <col min="8449" max="8449" width="1.6640625" style="26" customWidth="1"/>
-    <col min="8450" max="8450" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8452" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="11.58203125" style="26" customWidth="1"/>
-    <col min="8455" max="8457" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8704" width="9" style="26"/>
-    <col min="8705" max="8705" width="1.6640625" style="26" customWidth="1"/>
-    <col min="8706" max="8706" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8708" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="11.58203125" style="26" customWidth="1"/>
-    <col min="8711" max="8713" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8960" width="9" style="26"/>
-    <col min="8961" max="8961" width="1.6640625" style="26" customWidth="1"/>
-    <col min="8962" max="8962" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8964" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="11.58203125" style="26" customWidth="1"/>
-    <col min="8967" max="8969" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9216" width="9" style="26"/>
-    <col min="9217" max="9217" width="1.6640625" style="26" customWidth="1"/>
-    <col min="9218" max="9218" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9220" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="11.58203125" style="26" customWidth="1"/>
-    <col min="9223" max="9225" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9472" width="9" style="26"/>
-    <col min="9473" max="9473" width="1.6640625" style="26" customWidth="1"/>
-    <col min="9474" max="9474" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9476" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="11.58203125" style="26" customWidth="1"/>
-    <col min="9479" max="9481" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9728" width="9" style="26"/>
-    <col min="9729" max="9729" width="1.6640625" style="26" customWidth="1"/>
-    <col min="9730" max="9730" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9732" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="11.58203125" style="26" customWidth="1"/>
-    <col min="9735" max="9737" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9984" width="9" style="26"/>
-    <col min="9985" max="9985" width="1.6640625" style="26" customWidth="1"/>
-    <col min="9986" max="9986" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9988" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="11.58203125" style="26" customWidth="1"/>
-    <col min="9991" max="9993" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10240" width="9" style="26"/>
-    <col min="10241" max="10241" width="1.6640625" style="26" customWidth="1"/>
-    <col min="10242" max="10242" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10244" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="11.58203125" style="26" customWidth="1"/>
-    <col min="10247" max="10249" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10496" width="9" style="26"/>
-    <col min="10497" max="10497" width="1.6640625" style="26" customWidth="1"/>
-    <col min="10498" max="10498" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10500" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="11.58203125" style="26" customWidth="1"/>
-    <col min="10503" max="10505" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10752" width="9" style="26"/>
-    <col min="10753" max="10753" width="1.6640625" style="26" customWidth="1"/>
-    <col min="10754" max="10754" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10756" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="11.58203125" style="26" customWidth="1"/>
-    <col min="10759" max="10761" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11008" width="9" style="26"/>
-    <col min="11009" max="11009" width="1.6640625" style="26" customWidth="1"/>
-    <col min="11010" max="11010" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11012" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="11.58203125" style="26" customWidth="1"/>
-    <col min="11015" max="11017" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11264" width="9" style="26"/>
-    <col min="11265" max="11265" width="1.6640625" style="26" customWidth="1"/>
-    <col min="11266" max="11266" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11268" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="11.58203125" style="26" customWidth="1"/>
-    <col min="11271" max="11273" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11520" width="9" style="26"/>
-    <col min="11521" max="11521" width="1.6640625" style="26" customWidth="1"/>
-    <col min="11522" max="11522" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11524" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="11.58203125" style="26" customWidth="1"/>
-    <col min="11527" max="11529" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11776" width="9" style="26"/>
-    <col min="11777" max="11777" width="1.6640625" style="26" customWidth="1"/>
-    <col min="11778" max="11778" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11780" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="11.58203125" style="26" customWidth="1"/>
-    <col min="11783" max="11785" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12032" width="9" style="26"/>
-    <col min="12033" max="12033" width="1.6640625" style="26" customWidth="1"/>
-    <col min="12034" max="12034" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12036" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="11.58203125" style="26" customWidth="1"/>
-    <col min="12039" max="12041" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12288" width="9" style="26"/>
-    <col min="12289" max="12289" width="1.6640625" style="26" customWidth="1"/>
-    <col min="12290" max="12290" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12292" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="11.58203125" style="26" customWidth="1"/>
-    <col min="12295" max="12297" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12544" width="9" style="26"/>
-    <col min="12545" max="12545" width="1.6640625" style="26" customWidth="1"/>
-    <col min="12546" max="12546" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12548" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="11.58203125" style="26" customWidth="1"/>
-    <col min="12551" max="12553" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12800" width="9" style="26"/>
-    <col min="12801" max="12801" width="1.6640625" style="26" customWidth="1"/>
-    <col min="12802" max="12802" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12804" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="11.58203125" style="26" customWidth="1"/>
-    <col min="12807" max="12809" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13056" width="9" style="26"/>
-    <col min="13057" max="13057" width="1.6640625" style="26" customWidth="1"/>
-    <col min="13058" max="13058" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13060" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="11.58203125" style="26" customWidth="1"/>
-    <col min="13063" max="13065" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13312" width="9" style="26"/>
-    <col min="13313" max="13313" width="1.6640625" style="26" customWidth="1"/>
-    <col min="13314" max="13314" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13316" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="11.58203125" style="26" customWidth="1"/>
-    <col min="13319" max="13321" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13568" width="9" style="26"/>
-    <col min="13569" max="13569" width="1.6640625" style="26" customWidth="1"/>
-    <col min="13570" max="13570" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13572" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="11.58203125" style="26" customWidth="1"/>
-    <col min="13575" max="13577" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13824" width="9" style="26"/>
-    <col min="13825" max="13825" width="1.6640625" style="26" customWidth="1"/>
-    <col min="13826" max="13826" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13828" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="11.58203125" style="26" customWidth="1"/>
-    <col min="13831" max="13833" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14080" width="9" style="26"/>
-    <col min="14081" max="14081" width="1.6640625" style="26" customWidth="1"/>
-    <col min="14082" max="14082" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14084" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="11.58203125" style="26" customWidth="1"/>
-    <col min="14087" max="14089" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14336" width="9" style="26"/>
-    <col min="14337" max="14337" width="1.6640625" style="26" customWidth="1"/>
-    <col min="14338" max="14338" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14340" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="11.58203125" style="26" customWidth="1"/>
-    <col min="14343" max="14345" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14592" width="9" style="26"/>
-    <col min="14593" max="14593" width="1.6640625" style="26" customWidth="1"/>
-    <col min="14594" max="14594" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14596" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="11.58203125" style="26" customWidth="1"/>
-    <col min="14599" max="14601" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14848" width="9" style="26"/>
-    <col min="14849" max="14849" width="1.6640625" style="26" customWidth="1"/>
-    <col min="14850" max="14850" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14852" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="11.58203125" style="26" customWidth="1"/>
-    <col min="14855" max="14857" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15104" width="9" style="26"/>
-    <col min="15105" max="15105" width="1.6640625" style="26" customWidth="1"/>
-    <col min="15106" max="15106" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15108" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="11.58203125" style="26" customWidth="1"/>
-    <col min="15111" max="15113" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15360" width="9" style="26"/>
-    <col min="15361" max="15361" width="1.6640625" style="26" customWidth="1"/>
-    <col min="15362" max="15362" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15364" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="11.58203125" style="26" customWidth="1"/>
-    <col min="15367" max="15369" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15616" width="9" style="26"/>
-    <col min="15617" max="15617" width="1.6640625" style="26" customWidth="1"/>
-    <col min="15618" max="15618" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15620" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="11.58203125" style="26" customWidth="1"/>
-    <col min="15623" max="15625" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15872" width="9" style="26"/>
-    <col min="15873" max="15873" width="1.6640625" style="26" customWidth="1"/>
-    <col min="15874" max="15874" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15876" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="11.58203125" style="26" customWidth="1"/>
-    <col min="15879" max="15881" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16128" width="9" style="26"/>
-    <col min="16129" max="16129" width="1.6640625" style="26" customWidth="1"/>
-    <col min="16130" max="16130" width="9.9140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16132" width="8.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="11.58203125" style="26" customWidth="1"/>
-    <col min="16135" max="16137" width="11.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="1.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.9140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.1640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.58203125" style="23" customWidth="1"/>
+    <col min="7" max="9" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="256" width="9" style="23"/>
+    <col min="257" max="257" width="1.6640625" style="23" customWidth="1"/>
+    <col min="258" max="258" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="259" max="260" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11.58203125" style="23" customWidth="1"/>
+    <col min="263" max="265" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="266" max="512" width="9" style="23"/>
+    <col min="513" max="513" width="1.6640625" style="23" customWidth="1"/>
+    <col min="514" max="514" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="515" max="516" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11.58203125" style="23" customWidth="1"/>
+    <col min="519" max="521" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="522" max="768" width="9" style="23"/>
+    <col min="769" max="769" width="1.6640625" style="23" customWidth="1"/>
+    <col min="770" max="770" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="771" max="772" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11.58203125" style="23" customWidth="1"/>
+    <col min="775" max="777" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="778" max="1024" width="9" style="23"/>
+    <col min="1025" max="1025" width="1.6640625" style="23" customWidth="1"/>
+    <col min="1026" max="1026" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1028" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11.58203125" style="23" customWidth="1"/>
+    <col min="1031" max="1033" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1280" width="9" style="23"/>
+    <col min="1281" max="1281" width="1.6640625" style="23" customWidth="1"/>
+    <col min="1282" max="1282" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1284" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11.58203125" style="23" customWidth="1"/>
+    <col min="1287" max="1289" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1536" width="9" style="23"/>
+    <col min="1537" max="1537" width="1.6640625" style="23" customWidth="1"/>
+    <col min="1538" max="1538" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1540" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11.58203125" style="23" customWidth="1"/>
+    <col min="1543" max="1545" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1792" width="9" style="23"/>
+    <col min="1793" max="1793" width="1.6640625" style="23" customWidth="1"/>
+    <col min="1794" max="1794" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1796" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11.58203125" style="23" customWidth="1"/>
+    <col min="1799" max="1801" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2048" width="9" style="23"/>
+    <col min="2049" max="2049" width="1.6640625" style="23" customWidth="1"/>
+    <col min="2050" max="2050" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2052" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11.58203125" style="23" customWidth="1"/>
+    <col min="2055" max="2057" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2304" width="9" style="23"/>
+    <col min="2305" max="2305" width="1.6640625" style="23" customWidth="1"/>
+    <col min="2306" max="2306" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2308" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11.58203125" style="23" customWidth="1"/>
+    <col min="2311" max="2313" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2560" width="9" style="23"/>
+    <col min="2561" max="2561" width="1.6640625" style="23" customWidth="1"/>
+    <col min="2562" max="2562" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2564" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11.58203125" style="23" customWidth="1"/>
+    <col min="2567" max="2569" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2816" width="9" style="23"/>
+    <col min="2817" max="2817" width="1.6640625" style="23" customWidth="1"/>
+    <col min="2818" max="2818" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2820" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11.58203125" style="23" customWidth="1"/>
+    <col min="2823" max="2825" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3072" width="9" style="23"/>
+    <col min="3073" max="3073" width="1.6640625" style="23" customWidth="1"/>
+    <col min="3074" max="3074" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3076" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11.58203125" style="23" customWidth="1"/>
+    <col min="3079" max="3081" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3328" width="9" style="23"/>
+    <col min="3329" max="3329" width="1.6640625" style="23" customWidth="1"/>
+    <col min="3330" max="3330" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3332" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11.58203125" style="23" customWidth="1"/>
+    <col min="3335" max="3337" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3584" width="9" style="23"/>
+    <col min="3585" max="3585" width="1.6640625" style="23" customWidth="1"/>
+    <col min="3586" max="3586" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3588" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11.58203125" style="23" customWidth="1"/>
+    <col min="3591" max="3593" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3840" width="9" style="23"/>
+    <col min="3841" max="3841" width="1.6640625" style="23" customWidth="1"/>
+    <col min="3842" max="3842" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3844" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11.58203125" style="23" customWidth="1"/>
+    <col min="3847" max="3849" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4096" width="9" style="23"/>
+    <col min="4097" max="4097" width="1.6640625" style="23" customWidth="1"/>
+    <col min="4098" max="4098" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4100" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11.58203125" style="23" customWidth="1"/>
+    <col min="4103" max="4105" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4352" width="9" style="23"/>
+    <col min="4353" max="4353" width="1.6640625" style="23" customWidth="1"/>
+    <col min="4354" max="4354" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4356" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11.58203125" style="23" customWidth="1"/>
+    <col min="4359" max="4361" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4608" width="9" style="23"/>
+    <col min="4609" max="4609" width="1.6640625" style="23" customWidth="1"/>
+    <col min="4610" max="4610" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4612" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11.58203125" style="23" customWidth="1"/>
+    <col min="4615" max="4617" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4864" width="9" style="23"/>
+    <col min="4865" max="4865" width="1.6640625" style="23" customWidth="1"/>
+    <col min="4866" max="4866" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4868" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11.58203125" style="23" customWidth="1"/>
+    <col min="4871" max="4873" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5120" width="9" style="23"/>
+    <col min="5121" max="5121" width="1.6640625" style="23" customWidth="1"/>
+    <col min="5122" max="5122" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5124" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11.58203125" style="23" customWidth="1"/>
+    <col min="5127" max="5129" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5376" width="9" style="23"/>
+    <col min="5377" max="5377" width="1.6640625" style="23" customWidth="1"/>
+    <col min="5378" max="5378" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5380" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11.58203125" style="23" customWidth="1"/>
+    <col min="5383" max="5385" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5632" width="9" style="23"/>
+    <col min="5633" max="5633" width="1.6640625" style="23" customWidth="1"/>
+    <col min="5634" max="5634" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5636" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11.58203125" style="23" customWidth="1"/>
+    <col min="5639" max="5641" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5888" width="9" style="23"/>
+    <col min="5889" max="5889" width="1.6640625" style="23" customWidth="1"/>
+    <col min="5890" max="5890" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5892" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11.58203125" style="23" customWidth="1"/>
+    <col min="5895" max="5897" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6144" width="9" style="23"/>
+    <col min="6145" max="6145" width="1.6640625" style="23" customWidth="1"/>
+    <col min="6146" max="6146" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6148" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11.58203125" style="23" customWidth="1"/>
+    <col min="6151" max="6153" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6400" width="9" style="23"/>
+    <col min="6401" max="6401" width="1.6640625" style="23" customWidth="1"/>
+    <col min="6402" max="6402" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6404" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11.58203125" style="23" customWidth="1"/>
+    <col min="6407" max="6409" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6656" width="9" style="23"/>
+    <col min="6657" max="6657" width="1.6640625" style="23" customWidth="1"/>
+    <col min="6658" max="6658" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6660" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11.58203125" style="23" customWidth="1"/>
+    <col min="6663" max="6665" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6912" width="9" style="23"/>
+    <col min="6913" max="6913" width="1.6640625" style="23" customWidth="1"/>
+    <col min="6914" max="6914" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6916" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11.58203125" style="23" customWidth="1"/>
+    <col min="6919" max="6921" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7168" width="9" style="23"/>
+    <col min="7169" max="7169" width="1.6640625" style="23" customWidth="1"/>
+    <col min="7170" max="7170" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7172" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11.58203125" style="23" customWidth="1"/>
+    <col min="7175" max="7177" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7424" width="9" style="23"/>
+    <col min="7425" max="7425" width="1.6640625" style="23" customWidth="1"/>
+    <col min="7426" max="7426" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7428" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11.58203125" style="23" customWidth="1"/>
+    <col min="7431" max="7433" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7680" width="9" style="23"/>
+    <col min="7681" max="7681" width="1.6640625" style="23" customWidth="1"/>
+    <col min="7682" max="7682" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7684" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11.58203125" style="23" customWidth="1"/>
+    <col min="7687" max="7689" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7936" width="9" style="23"/>
+    <col min="7937" max="7937" width="1.6640625" style="23" customWidth="1"/>
+    <col min="7938" max="7938" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7940" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11.58203125" style="23" customWidth="1"/>
+    <col min="7943" max="7945" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8192" width="9" style="23"/>
+    <col min="8193" max="8193" width="1.6640625" style="23" customWidth="1"/>
+    <col min="8194" max="8194" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8196" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11.58203125" style="23" customWidth="1"/>
+    <col min="8199" max="8201" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8448" width="9" style="23"/>
+    <col min="8449" max="8449" width="1.6640625" style="23" customWidth="1"/>
+    <col min="8450" max="8450" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8452" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11.58203125" style="23" customWidth="1"/>
+    <col min="8455" max="8457" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8704" width="9" style="23"/>
+    <col min="8705" max="8705" width="1.6640625" style="23" customWidth="1"/>
+    <col min="8706" max="8706" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8708" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11.58203125" style="23" customWidth="1"/>
+    <col min="8711" max="8713" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8960" width="9" style="23"/>
+    <col min="8961" max="8961" width="1.6640625" style="23" customWidth="1"/>
+    <col min="8962" max="8962" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8964" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11.58203125" style="23" customWidth="1"/>
+    <col min="8967" max="8969" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9216" width="9" style="23"/>
+    <col min="9217" max="9217" width="1.6640625" style="23" customWidth="1"/>
+    <col min="9218" max="9218" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9220" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11.58203125" style="23" customWidth="1"/>
+    <col min="9223" max="9225" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9472" width="9" style="23"/>
+    <col min="9473" max="9473" width="1.6640625" style="23" customWidth="1"/>
+    <col min="9474" max="9474" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9476" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11.58203125" style="23" customWidth="1"/>
+    <col min="9479" max="9481" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9728" width="9" style="23"/>
+    <col min="9729" max="9729" width="1.6640625" style="23" customWidth="1"/>
+    <col min="9730" max="9730" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9732" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11.58203125" style="23" customWidth="1"/>
+    <col min="9735" max="9737" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9984" width="9" style="23"/>
+    <col min="9985" max="9985" width="1.6640625" style="23" customWidth="1"/>
+    <col min="9986" max="9986" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9988" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11.58203125" style="23" customWidth="1"/>
+    <col min="9991" max="9993" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10240" width="9" style="23"/>
+    <col min="10241" max="10241" width="1.6640625" style="23" customWidth="1"/>
+    <col min="10242" max="10242" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10244" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11.58203125" style="23" customWidth="1"/>
+    <col min="10247" max="10249" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10496" width="9" style="23"/>
+    <col min="10497" max="10497" width="1.6640625" style="23" customWidth="1"/>
+    <col min="10498" max="10498" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10500" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11.58203125" style="23" customWidth="1"/>
+    <col min="10503" max="10505" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10752" width="9" style="23"/>
+    <col min="10753" max="10753" width="1.6640625" style="23" customWidth="1"/>
+    <col min="10754" max="10754" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10756" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11.58203125" style="23" customWidth="1"/>
+    <col min="10759" max="10761" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11008" width="9" style="23"/>
+    <col min="11009" max="11009" width="1.6640625" style="23" customWidth="1"/>
+    <col min="11010" max="11010" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11012" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11.58203125" style="23" customWidth="1"/>
+    <col min="11015" max="11017" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11264" width="9" style="23"/>
+    <col min="11265" max="11265" width="1.6640625" style="23" customWidth="1"/>
+    <col min="11266" max="11266" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11268" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11.58203125" style="23" customWidth="1"/>
+    <col min="11271" max="11273" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11520" width="9" style="23"/>
+    <col min="11521" max="11521" width="1.6640625" style="23" customWidth="1"/>
+    <col min="11522" max="11522" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11524" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11.58203125" style="23" customWidth="1"/>
+    <col min="11527" max="11529" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11776" width="9" style="23"/>
+    <col min="11777" max="11777" width="1.6640625" style="23" customWidth="1"/>
+    <col min="11778" max="11778" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11780" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11.58203125" style="23" customWidth="1"/>
+    <col min="11783" max="11785" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12032" width="9" style="23"/>
+    <col min="12033" max="12033" width="1.6640625" style="23" customWidth="1"/>
+    <col min="12034" max="12034" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12036" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11.58203125" style="23" customWidth="1"/>
+    <col min="12039" max="12041" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12288" width="9" style="23"/>
+    <col min="12289" max="12289" width="1.6640625" style="23" customWidth="1"/>
+    <col min="12290" max="12290" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12292" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11.58203125" style="23" customWidth="1"/>
+    <col min="12295" max="12297" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12544" width="9" style="23"/>
+    <col min="12545" max="12545" width="1.6640625" style="23" customWidth="1"/>
+    <col min="12546" max="12546" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12548" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11.58203125" style="23" customWidth="1"/>
+    <col min="12551" max="12553" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12800" width="9" style="23"/>
+    <col min="12801" max="12801" width="1.6640625" style="23" customWidth="1"/>
+    <col min="12802" max="12802" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12804" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11.58203125" style="23" customWidth="1"/>
+    <col min="12807" max="12809" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13056" width="9" style="23"/>
+    <col min="13057" max="13057" width="1.6640625" style="23" customWidth="1"/>
+    <col min="13058" max="13058" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13060" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11.58203125" style="23" customWidth="1"/>
+    <col min="13063" max="13065" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13312" width="9" style="23"/>
+    <col min="13313" max="13313" width="1.6640625" style="23" customWidth="1"/>
+    <col min="13314" max="13314" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13316" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11.58203125" style="23" customWidth="1"/>
+    <col min="13319" max="13321" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13568" width="9" style="23"/>
+    <col min="13569" max="13569" width="1.6640625" style="23" customWidth="1"/>
+    <col min="13570" max="13570" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13572" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11.58203125" style="23" customWidth="1"/>
+    <col min="13575" max="13577" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13824" width="9" style="23"/>
+    <col min="13825" max="13825" width="1.6640625" style="23" customWidth="1"/>
+    <col min="13826" max="13826" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13828" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11.58203125" style="23" customWidth="1"/>
+    <col min="13831" max="13833" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14080" width="9" style="23"/>
+    <col min="14081" max="14081" width="1.6640625" style="23" customWidth="1"/>
+    <col min="14082" max="14082" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14084" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11.58203125" style="23" customWidth="1"/>
+    <col min="14087" max="14089" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14336" width="9" style="23"/>
+    <col min="14337" max="14337" width="1.6640625" style="23" customWidth="1"/>
+    <col min="14338" max="14338" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14340" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11.58203125" style="23" customWidth="1"/>
+    <col min="14343" max="14345" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14592" width="9" style="23"/>
+    <col min="14593" max="14593" width="1.6640625" style="23" customWidth="1"/>
+    <col min="14594" max="14594" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14596" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11.58203125" style="23" customWidth="1"/>
+    <col min="14599" max="14601" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14848" width="9" style="23"/>
+    <col min="14849" max="14849" width="1.6640625" style="23" customWidth="1"/>
+    <col min="14850" max="14850" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14852" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11.58203125" style="23" customWidth="1"/>
+    <col min="14855" max="14857" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15104" width="9" style="23"/>
+    <col min="15105" max="15105" width="1.6640625" style="23" customWidth="1"/>
+    <col min="15106" max="15106" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15108" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11.58203125" style="23" customWidth="1"/>
+    <col min="15111" max="15113" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15360" width="9" style="23"/>
+    <col min="15361" max="15361" width="1.6640625" style="23" customWidth="1"/>
+    <col min="15362" max="15362" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15364" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11.58203125" style="23" customWidth="1"/>
+    <col min="15367" max="15369" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15616" width="9" style="23"/>
+    <col min="15617" max="15617" width="1.6640625" style="23" customWidth="1"/>
+    <col min="15618" max="15618" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15620" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11.58203125" style="23" customWidth="1"/>
+    <col min="15623" max="15625" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15872" width="9" style="23"/>
+    <col min="15873" max="15873" width="1.6640625" style="23" customWidth="1"/>
+    <col min="15874" max="15874" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15876" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11.58203125" style="23" customWidth="1"/>
+    <col min="15879" max="15881" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16128" width="9" style="23"/>
+    <col min="16129" max="16129" width="1.6640625" style="23" customWidth="1"/>
+    <col min="16130" max="16130" width="9.9140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16132" width="8.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11.58203125" style="23" customWidth="1"/>
+    <col min="16135" max="16137" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="29.4" customHeight="1">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="2:9" ht="34.5" customHeight="1">
+      <c r="B2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B3" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+    </row>
+    <row r="4" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B4" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="46"/>
     </row>
-    <row r="2" spans="2:9" ht="34.5" customHeight="1">
-      <c r="B2" s="27" t="s">
+    <row r="6" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+    </row>
+    <row r="7" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="29" customHeight="1">
+      <c r="B9" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="26">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="G9" s="27">
+        <v>100</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="2:9" ht="20.149999999999999" customHeight="1">
-      <c r="B3" s="28" t="s">
-        <v>32</v>
+    <row r="10" spans="2:9" ht="15" customHeight="1">
+      <c r="B10" s="34"/>
+      <c r="C10" s="36" t="s">
+        <v>55</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
     </row>
-    <row r="4" spans="2:9" ht="20.149999999999999" customHeight="1">
-      <c r="B4" s="29" t="s">
-        <v>33</v>
+    <row r="11" spans="2:9" ht="15" customHeight="1">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
+        <v>56</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30" t="s">
-        <v>34</v>
+      <c r="D11" s="37"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" customHeight="1">
+      <c r="B12" s="33" t="s">
+        <v>45</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="29" t="s">
-        <v>35</v>
+      <c r="C12" s="36" t="s">
+        <v>54</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="32" t="s">
-        <v>36</v>
+      <c r="D12" s="37"/>
+      <c r="E12" s="25" t="s">
+        <v>62</v>
       </c>
-      <c r="I4" s="32"/>
+      <c r="F12" s="26">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27">
+        <v>100</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="27"/>
     </row>
-    <row r="5" spans="2:9" ht="20.149999999999999" customHeight="1">
-      <c r="B5" s="29" t="s">
+    <row r="13" spans="2:9" ht="15" customHeight="1">
+      <c r="B13" s="34"/>
+      <c r="C13" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" customHeight="1">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="2:9" ht="15" customHeight="1">
+      <c r="B15" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="2:9" ht="15" customHeight="1">
+      <c r="B16" s="34"/>
+      <c r="C16" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="2:9" ht="15" customHeight="1">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" customHeight="1">
+      <c r="B18" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="2:9" ht="15" customHeight="1">
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="2:9" ht="15" customHeight="1">
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="2:9" ht="15" customHeight="1">
+      <c r="B21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="2:9" ht="15" customHeight="1">
+      <c r="B22" s="34"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="2:9" ht="15" customHeight="1">
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="2:9" ht="17.149999999999999" customHeight="1">
+      <c r="B24" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="2:9" ht="17.149999999999999" customHeight="1">
+      <c r="B25" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30" t="s">
+      <c r="C25" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="29" t="s">
+      <c r="D25" s="42"/>
+      <c r="E25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="2:9" ht="20.149999999999999" customHeight="1">
-      <c r="B6" s="29" t="s">
+      <c r="F25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="29" t="s">
+      <c r="G25" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="2:9" ht="20.149999999999999" customHeight="1">
-      <c r="B7" s="33" t="s">
+      <c r="H25" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="2:9" ht="20.149999999999999" customHeight="1">
-      <c r="B8" s="36" t="s">
+      <c r="I25" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15" customHeight="1">
-      <c r="B9" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" spans="2:9" ht="15" customHeight="1">
-      <c r="B10" s="46"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="11" spans="2:9" ht="15" customHeight="1">
-      <c r="B11" s="47"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" customHeight="1">
-      <c r="B12" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="44"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="44"/>
-    </row>
-    <row r="14" spans="2:9" ht="15" customHeight="1">
-      <c r="B14" s="47"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="2:9" ht="15" customHeight="1">
-      <c r="B15" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="44"/>
-    </row>
-    <row r="16" spans="2:9" ht="15" customHeight="1">
-      <c r="B16" s="46"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="44"/>
-    </row>
-    <row r="17" spans="2:9" ht="15" customHeight="1">
-      <c r="B17" s="47"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="44"/>
-    </row>
-    <row r="18" spans="2:9" ht="15" customHeight="1">
-      <c r="B18" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="44"/>
-    </row>
-    <row r="19" spans="2:9" ht="15" customHeight="1">
-      <c r="B19" s="46"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" spans="2:9" ht="15" customHeight="1">
-      <c r="B20" s="47"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="48"/>
-    </row>
-    <row r="21" spans="2:9" ht="15" customHeight="1">
-      <c r="B21" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="48"/>
-    </row>
-    <row r="22" spans="2:9" ht="15" customHeight="1">
-      <c r="B22" s="46"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="48"/>
-    </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1">
-      <c r="B23" s="47"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="48"/>
-    </row>
-    <row r="24" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
-    </row>
-    <row r="25" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B25" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B26" s="39" t="s">
-        <v>51</v>
+      <c r="B26" s="33" t="s">
+        <v>45</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="44"/>
+      <c r="C26" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B27" s="46"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="44"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B28" s="47"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="44"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B29" s="39" t="s">
-        <v>52</v>
+      <c r="B29" s="33" t="s">
+        <v>46</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="44"/>
+      <c r="C29" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B30" s="46"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="44"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B31" s="47"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="44"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B32" s="39" t="s">
-        <v>53</v>
+      <c r="B32" s="33" t="s">
+        <v>47</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="44"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B33" s="46"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="44"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B34" s="47"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="44"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B35" s="39" t="s">
-        <v>54</v>
+      <c r="B35" s="33" t="s">
+        <v>48</v>
       </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="44"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
     </row>
     <row r="36" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B36" s="46"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="48"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
     </row>
     <row r="37" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B37" s="47"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="48"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B38" s="39" t="s">
-        <v>56</v>
+      <c r="B38" s="33" t="s">
+        <v>50</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="48"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
     </row>
     <row r="39" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B39" s="46"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="48"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="29"/>
     </row>
     <row r="40" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B40" s="47"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="48"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
@@ -16567,57 +16689,6 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.24" right="0.23" top="1" bottom="1" header="0.5" footer="0.5"/>
